--- a/tools/excel/ccb/converted.xlsx
+++ b/tools/excel/ccb/converted.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,14 +453,18 @@
           <t>Vermogensbeheer (ID.AM)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>De gegevens, het personeel, de apparaten, de systemen en de faciliteiten die de organisatie in staat stellen bedrijfsdoeleinden te bereiken, worden geïdentificeerd en beheerd in overeenstemming met hun relatieve belang voor de doelstellingen en de risicostrategie van de organisatie.</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>De gegevens, het personeel, de apparaten, de systemen en de faciliteiten die de organisatie in staat stellen bedrijfsdoeleinden te bereiken, worden geïdentificeerd en beheerd in overeenstemming met hun relatieve belang voor de doelstellingen en de risicostrategie van de organisatie.</t>
+          <t>ID.AM-1:  Inventarisatie van de binnen de organisatie gebruikte fysieke apparaten en systemen.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -469,23 +473,29 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ID.AM-1:  Inventarisatie van de binnen de organisatie gebruikte fysieke apparaten en systemen.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Een inventaris van activa in verband met informatie en informatieverwerkingsfaciliteiten binnen de organisatie moet worden gedocumenteerd, geëvalueerd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>• Deze inventaris omvat vaste en draagbare computers, tablets, mobiele telefoons, programmeerbare logische Controllers (PLC's), sensoren, actuatoren, robots, machinegereedschappen, firmware, netwerk switches, routers, voedingen en andere netwerkcomponenten of -apparaten. 
+• Er wordt aanbevolen dat deze inventaris moet alle activa omvatten, ongeacht of zij al dan niet op het netwerk van de organisatie zijn aangesloten. 
+• Het gebruik van een hulpmiddel voor ICT-activabeheer kan worden overwogen.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Een inventaris van activa in verband met informatie en informatieverwerkingsfaciliteiten binnen de organisatie moet worden gedocumenteerd, geëvalueerd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
+          <t>De inventaris van activa die verband houden met informatie en informatieverwerkingsfaciliteiten moet veranderingen in de context van de organisatie weerspiegelen en alle informatie bevatten die nodig is voor een effectieve verantwoording.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>• Deze inventaris omvat vaste en draagbare computers, tablets, mobiele telefoons, programmeerbare logische Controllers (PLC's), sensoren, actuatoren, robots, machinegereedschappen, firmware, netwerk switches, routers, voedingen en andere netwerkcomponenten of -apparaten. 
-• Er wordt aanbevolen dat deze inventaris moet alle activa omvatten, ongeacht of zij al dan niet op het netwerk van de organisatie zijn aangesloten. 
-• Het gebruik van een hulpmiddel voor ICT-activabeheer kan worden overwogen.</t>
+          <t>• De inventarisatie kan bijvoorbeeld het volgende omvatten: fabrikant, apparaat type, model, serienummer, machinenamen en netwerkadressen, fysieke locatie... 
+• Verantwoordingsplicht is de verplichting om iemands daden uit te leggen, te rechtvaardigen en er verantwoordelijkheid voor te nemen; het impliceert verantwoording voor het resultaat van de taak of het proces. 
+• De veranderingen omvatten de ontmanteling van materiaal.</t>
         </is>
       </c>
     </row>
@@ -493,14 +503,13 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>De inventaris van activa die verband houden met informatie en informatieverwerkingsfaciliteiten moet veranderingen in de context van de organisatie weerspiegelen en alle informatie bevatten die nodig is voor een effectieve verantwoording.</t>
+          <t>Wanneer niet-toegestane hardware wordt ontdekt, moet deze in quarantaine worden geplaatst voor eventuele uitzonderingsbehandeling, verwijderd of vervangen, en wordt de inventaris dienovereenkomstig bijgewerkt.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>• De inventarisatie kan bijvoorbeeld het volgende omvatten: fabrikant, apparaat type, model, serienummer, machinenamen en netwerkadressen, fysieke locatie... 
-• Verantwoordingsplicht is de verplichting om iemands daden uit te leggen, te rechtvaardigen en er verantwoordelijkheid voor te nemen; het impliceert verantwoording voor het resultaat van de taak of het proces. 
-• De veranderingen omvatten de ontmanteling van materiaal.</t>
+          <t>• Alle niet-ondersteunde hardware zonder uitzonderingsdocumentatie wordt aangemerkt als niet- geautoriseerd. 
+• Niet-toegestane hardware kan worden opgespoord tijdens inventarisaties, verzoeken om ondersteuning door de gebruiker of op andere manieren.</t>
         </is>
       </c>
     </row>
@@ -508,13 +517,13 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wanneer niet-toegestane hardware wordt ontdekt, moet deze in quarantaine worden geplaatst voor eventuele uitzonderingsbehandeling, verwijderd of vervangen, en wordt de inventaris dienovereenkomstig bijgewerkt.</t>
+          <t>De mechanismen voor het detecteren van de aanwezigheid van niet-geautoriseerde hardware- en firmwarecomponenten in het netwerk van de organisatie moeten worden geïdentificeerd.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>• Alle niet-ondersteunde hardware zonder uitzonderingsdocumentatie wordt aangemerkt als niet- geautoriseerd. 
-• Niet-toegestane hardware kan worden opgespoord tijdens inventarisaties, verzoeken om ondersteuning door de gebruiker of op andere manieren.</t>
+          <t>• Waar dat veilig en haalbaar is, kunnen deze mechanismen worden geautomatiseerd. 
+• Er zou een proces moeten zijn om niet-geautoriseerde bedrijfsmiddelen (assets) regelmatig aan te pakken; de organisatie kan ervoor kiezen het bedrijfsmiddel (asset) van het netwerk te verwijderen, het bedrijfsmiddel (asset) te verbieden op afstand verbinding te maken met het netwerk, of het bedrijfsmiddel (asset) in quarantaine te plaatsen.</t>
         </is>
       </c>
     </row>
@@ -522,33 +531,19 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>De mechanismen voor het detecteren van de aanwezigheid van niet-geautoriseerde hardware- en firmwarecomponenten in het netwerk van de organisatie moeten worden geïdentificeerd.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>• Waar dat veilig en haalbaar is, kunnen deze mechanismen worden geautomatiseerd. 
-• Er zou een proces moeten zijn om niet-geautoriseerde bedrijfsmiddelen (assets) regelmatig aan te pakken; de organisatie kan ervoor kiezen het bedrijfsmiddel (asset) van het netwerk te verwijderen, het bedrijfsmiddel (asset) te verbieden op afstand verbinding te maken met het netwerk, of het bedrijfsmiddel (asset) in quarantaine te plaatsen.</t>
-        </is>
-      </c>
+          <t>ID.AM-2:  Inventarisatie van de binnen de organisatie gebruikte softwareplatforms en - toepassingen.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ID.AM-2:  Inventarisatie van de binnen de organisatie gebruikte softwareplatforms en - toepassingen.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>Een inventaris die aangeeft welke softwareplatforms en -toepassingen in de organisatie worden gebruikt, moet worden gedocumenteerd, geëvalueerd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>• Deze inventaris omvat softwareprogramma's, softwareplatforms en databases, zelfs indien deze zijn uitbesteed (SaaS). 
 • Er wordt aanbevolen dat de modaliteiten van het uitbesteden deel uitmaken van de contractuele overeenkomsten met de dienstverlener. 
@@ -558,16 +553,29 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>De inventaris van softwareplatforms en -toepassingen die verband houden met informatie en informatieverwerking, moet veranderingen in de context van de organisatie weerspiegelen en alle informatie bevatten die nodig is voor een doeltreffende verantwoording.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>De inventaris van softwareplatforms en toepassingen zou voor elk item het volgende kunnen omvatten: de titel, de uitgever, de datum van eerste installatie/gebruik en het bedrijfsdoel; indien van toepassing, de Uniform Resource Locator (URL), de app store(s), de versie(s), het implementatiemechanisme en de datum van buitengebruikstelling.</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>De inventaris van softwareplatforms en -toepassingen die verband houden met informatie en informatieverwerking, moet veranderingen in de context van de organisatie weerspiegelen en alle informatie bevatten die nodig is voor een doeltreffende verantwoording.</t>
+          <t>De personen die binnen de organisatie verantwoordelijk en aansprakelijk zijn voor het beheer van softwareplatforms en -toepassingen moeten worden geïdentificeerd.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>De inventaris van softwareplatforms en toepassingen zou voor elk item het volgende kunnen omvatten: de titel, de uitgever, de datum van eerste installatie/gebruik en het bedrijfsdoel; indien van toepassing, de Uniform Resource Locator (URL), de app store(s), de versie(s), het implementatiemechanisme en de datum van buitengebruikstelling.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -575,12 +583,13 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>De personen die binnen de organisatie verantwoordelijk en aansprakelijk zijn voor het beheer van softwareplatforms en -toepassingen moeten worden geïdentificeerd.</t>
+          <t>Wanneer niet-geautoriseerde software wordt ontdekt, wordt deze in quarantaine geplaatst voor eventuele uitzonderingsbehandeling, verwijderd of vervangen, en wordt de inventaris dienovereenkomstig bijgewerkt.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>• Alle niet-ondersteunde software zonder uitzonderingsdocumentatie wordt als niet-geautoriseerd aangemerkt. 
+• Niet-geautoriseerde software kan worden opgespoord tijdens inventarisatie, verzoeken om ondersteuning door de gebruiker of andere middelen.</t>
         </is>
       </c>
     </row>
@@ -588,13 +597,13 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wanneer niet-geautoriseerde software wordt ontdekt, wordt deze in quarantaine geplaatst voor eventuele uitzonderingsbehandeling, verwijderd of vervangen, en wordt de inventaris dienovereenkomstig bijgewerkt.</t>
+          <t>De mechanismen voor het opsporen van de aanwezigheid van niet-geautoriseerde software in de ICT/OT-omgeving van de organisatie moeten worden geïdentificeerd.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>• Alle niet-ondersteunde software zonder uitzonderingsdocumentatie wordt als niet-geautoriseerd aangemerkt. 
-• Niet-geautoriseerde software kan worden opgespoord tijdens inventarisatie, verzoeken om ondersteuning door de gebruiker of andere middelen.</t>
+          <t>• Waar dat veilig en haalbaar is, kunnen deze mechanismen worden geautomatiseerd. 
+• Er zou een proces moeten zijn om niet-geautoriseerde bedrijfsmiddelen (activa) regelmatig aan te pakken; de organisatie kan ervoor kiezen het bedrijfsmiddel (activa) van het netwerk te verwijderen, het bedrijfsmiddel (activa) te verbieden op afstand verbinding te maken met het netwerk, of het bedrijfsmiddel (activa) in quarantaine te plaatsen.</t>
         </is>
       </c>
     </row>
@@ -602,47 +611,33 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>De mechanismen voor het opsporen van de aanwezigheid van niet-geautoriseerde software in de ICT/OT-omgeving van de organisatie moeten worden geïdentificeerd.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>• Waar dat veilig en haalbaar is, kunnen deze mechanismen worden geautomatiseerd. 
-• Er zou een proces moeten zijn om niet-geautoriseerde bedrijfsmiddelen (activa) regelmatig aan te pakken; de organisatie kan ervoor kiezen het bedrijfsmiddel (activa) van het netwerk te verwijderen, het bedrijfsmiddel (activa) te verbieden op afstand verbinding te maken met het netwerk, of het bedrijfsmiddel (activa) in quarantaine te plaatsen.</t>
-        </is>
-      </c>
+          <t>ID.AM-3:  De organisatorische communicatie- en gegevensstromen worden in kaart gebracht.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ID.AM-3:  De organisatorische communicatie- en gegevensstromen worden in kaart gebracht.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Informatie die de organisatie opslaat en gebruikt, moet worden geïdentificeerd.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>• Begin met een lijst van alle soorten informatie die uw bedrijf opslaat of gebruikt. Definieer "informatietype" op een voor uw bedrijf zinvolle manier. U kunt uw werknemers een lijst laten maken van alle informatie die zij bij hun gewone activiteiten gebruiken. Maak een lijst van alles wat u kunt bedenken, maar u hoeft niet te specifiek te zijn. U kunt bijvoorbeeld klantnamen en e-mailadressen bewaren, ontvangstbewijzen voor grondstoffen, uw bankgegevens of andere vertrouwelijke informatie. 
+• Overweeg deze informatie in kaart te brengen met de bijbehorende activa die zijn geïdentificeerd in de inventarissen van fysieke apparaten, systemen, softwareplatforms en toepassingen die binnen de organisatie worden gebruikt (zie ID.AM-1 &amp; ID.AM-2).</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Informatie die de organisatie opslaat en gebruikt, moet worden geïdentificeerd.</t>
+          <t>Alle verbindingen binnen de ICT/OT-omgeving van de organisatie en met andere interne platforms van de organisatie moeten in kaart worden gebracht, gedocumenteerd, goedgekeurd en zo nodig bijgewerkt.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>• Begin met een lijst van alle soorten informatie die uw bedrijf opslaat of gebruikt. Definieer "informatietype" op een voor uw bedrijf zinvolle manier. U kunt uw werknemers een lijst laten maken van alle informatie die zij bij hun gewone activiteiten gebruiken. Maak een lijst van alles wat u kunt bedenken, maar u hoeft niet te specifiek te zijn. U kunt bijvoorbeeld klantnamen en e-mailadressen bewaren, ontvangstbewijzen voor grondstoffen, uw bankgegevens of andere vertrouwelijke informatie. 
-• Overweeg deze informatie in kaart te brengen met de bijbehorende activa die zijn geïdentificeerd in de inventarissen van fysieke apparaten, systemen, softwareplatforms en toepassingen die binnen de organisatie worden gebruikt (zie ID.AM-1 &amp; ID.AM-2).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Alle verbindingen binnen de ICT/OT-omgeving van de organisatie en met andere interne platforms van de organisatie moeten in kaart worden gebracht, gedocumenteerd, goedgekeurd en zo nodig bijgewerkt.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>• Verbindingsinformatie omvat bijvoorbeeld de interfacekenmerken, gegevenskenmerken, poorten, protocollen, adressen, beschrijving van de gegevens, beveiligingsvereisten en de aard van de verbinding. 
 • Configuratiebeheer kan worden gebruikt als ondersteunende troef. 
@@ -651,14 +646,14 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
         <is>
           <t>De informatiestromen/gegevensstromen binnen de ICT/OT-omgeving van de organisatie en naar andere interne systemen van de organisatie moeten in kaart worden gebracht, gedocumenteerd, geautoriseerd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>• Met kennis van de informatie-/gegevensstromen binnen een systeem en tussen systemen is het mogelijk te bepalen waar informatie wel en niet naartoe kan gaan. 
 • Overweeg: 
@@ -668,27 +663,40 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ID.AM-4:  Externe informatiesystemen worden gecatalogiseerd.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ID.AM-4:  Externe informatiesystemen worden gecatalogiseerd.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>De organisatie moet alle externe diensten en de daarmee gemaakte verbindingen in kaart brengen, documenteren, autoriseren en bij wijzigingen bijwerken.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>• De uitbesteding van binnen de organisatie gebruikte systemen, softwareplatforms en toepassingen wordt behandeld in ID.AM-1 &amp; ID.AM-2. 
+• Externe informatiesystemen zijn systemen of onderdelen van systemen waar organisaties doorgaans geen rechtstreeks toezicht en gezag hebben over de toepassing van beveiligingseisen en -controles, of de bepaling van de doeltreffendheid van de op die systemen toegepaste controles. Dit zijn bv. diensten die worden uitgevoerd in de cloud, SaaS, hosting of andere externe omgevingen, API (Application Programming Interface) ... 
+• Door externe diensten en de verbindingen daarmee in kaart te brengen en vooraf te autoriseren, wordt voorkomen dat onnodig middelen worden verspild aan het onderzoeken van een zogenaamd niet- geauthentiseerde verbinding met externe systemen.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>De organisatie moet alle externe diensten en de daarmee gemaakte verbindingen in kaart brengen, documenteren, autoriseren en bij wijzigingen bijwerken.</t>
+          <t>De informatiestroom van en naar externe systemen moet in kaart worden gebracht, gedocumenteerd en geautoriseerd, en worden bijgewerkt wanneer zich wijzigingen voordoen.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>• De uitbesteding van binnen de organisatie gebruikte systemen, softwareplatforms en toepassingen wordt behandeld in ID.AM-1 &amp; ID.AM-2. 
-• Externe informatiesystemen zijn systemen of onderdelen van systemen waar organisaties doorgaans geen rechtstreeks toezicht en gezag hebben over de toepassing van beveiligingseisen en -controles, of de bepaling van de doeltreffendheid van de op die systemen toegepaste controles. Dit zijn bv. diensten die worden uitgevoerd in de cloud, SaaS, hosting of andere externe omgevingen, API (Application Programming Interface) ... 
-• Door externe diensten en de verbindingen daarmee in kaart te brengen en vooraf te autoriseren, wordt voorkomen dat onnodig middelen worden verspild aan het onderzoeken van een zogenaamd niet- geauthentiseerde verbinding met externe systemen.</t>
+          <t>Overweeg van externe dienstverleners te verlangen dat zij de functies, poorten, protocollen en diensten die nodig zijn voor de het verlenen van diensten om te connecteren identificeren en documenteren.</t>
         </is>
       </c>
     </row>
@@ -696,32 +704,19 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>De informatiestroom van en naar externe systemen moet in kaart worden gebracht, gedocumenteerd en geautoriseerd, en worden bijgewerkt wanneer zich wijzigingen voordoen.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Overweeg van externe dienstverleners te verlangen dat zij de functies, poorten, protocollen en diensten die nodig zijn voor de het verlenen van diensten om te connecteren identificeren en documenteren.</t>
-        </is>
-      </c>
+          <t>ID.AM-5:  Middelen worden geprioriteerd op basis van hun classificatie, kriticiteit en bedrijfswaarde.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ID.AM-5:  Middelen worden geprioriteerd op basis van hun classificatie, kriticiteit en bedrijfswaarde.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>De middelen van de organisatie (hardware, apparaten, gegevens, tijd, personeel, informatie en software) moeten worden geprioriteerd op basis van hun classificatie, kriticiteit en bedrijfswaarde.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>• Bepaal de middelen van de organisatie (bijv. hardware, apparaten, gegevens, tijd, personeel, informatie en software) op basis van volgende vragen: 
 	o Wat zou er met mijn bedrijf gebeuren als deze middelen openbaar worden gemaakt, beschadigd worden, verloren gaan...? 
@@ -739,23 +734,23 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ID.AM-6:  Rollen, verantwoordelijkheden en bevoegdheden op het gebied van informatie- en cyberbeveiliging worden vastgesteld voor het gehele personeel en belanghebbenden van derden.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ID.AM-6:  Rollen, verantwoordelijkheden en bevoegdheden op het gebied van informatie- en cyberbeveiliging worden vastgesteld voor het gehele personeel en belanghebbenden van derden.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>De rollen, verantwoordelijkheden en bevoegdheden op het gebied van informatie- en cyberbeveiliging binnen de organisatie moeten worden gedocumenteerd, geëvalueerd, geautoriseerd en bijgewerkt en afgestemd op de andere interne rollen van de organisatie en die van externe partners. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Het moet worden overwogen om: 
 • Beveiligingsrollen, -verantwoordelijkheden en -autoriteiten te beschrijven: wie in de organisatie moet worden geraadpleegd, geïnformeerd en verantwoordelijk worden gehouden voor alle of een deel van de bedrijfsmiddelen. 
@@ -764,70 +759,87 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>De organisatie zal een informatiebeveiligingsfunctionaris (Information Security Officer) aanstellen.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>De informatiebeveiligingsfunctionaris zou verantwoordelijk moeten zijn voor het toezicht op de uitvoering van de informatie-/cyberbeveiligingsstrategie en -waarborgen van de organisatie</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bedrijfsomgeving (ID.BE)</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>De organisatie zal een informatiebeveiligingsfunctionaris (Information Security Officer) aanstellen.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>De informatiebeveiligingsfunctionaris zou verantwoordelijk moeten zijn voor het toezicht op de uitvoering van de informatie-/cyberbeveiligingsstrategie en -waarborgen van de organisatie</t>
-        </is>
-      </c>
+          <t>De missie, doelstellingen, belanghebbenden en activiteiten van de organisatie worden begrepen en geprioriteerd; die informatie wordt gebruikt voor het bepalen van cyberbeveiligingsrollen en verantwoordelijkheden, en het ondersteunen van beslissingen met betrekking tot risicobeheer.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Bedrijfsomgeving (ID.BE)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ID.BE-1: De rol van de organisatie in de toeleveringsketen wordt vastgesteld en gecommuniceerd.</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>De missie, doelstellingen, belanghebbenden en activiteiten van de organisatie worden begrepen en geprioriteerd; die informatie wordt gebruikt voor het bepalen van cyberbeveiligingsrollen en verantwoordelijkheden, en het ondersteunen van beslissingen met betrekking tot risicobeheer.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>De rol van de organisatie in de toeleveringsketen moet worden vastgesteld, gedocumenteerd en gecommuniceerd.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>• De organisatie zou duidelijk moeten kunnen vaststellen wie zich stroomopwaarts en stroomafwaarts van de organisatie bevindt en welke leveranciers diensten, capaciteiten, producten en artikelen aan de organisatie leveren. 
+• De organisatie moet haar standpunt kenbaar maken aan haar toeleveranciers en afnemers, zodat duidelijk wordt waar zij staan in termen van kritisch belang voor de activiteiten van de organisatie.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ID.BE-1: De rol van de organisatie in de toeleveringsketen wordt vastgesteld en gecommuniceerd.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>De organisatie moet haar ICT/OT-omgeving beschermen tegen bedreigingen vanuit de toeleveringsketen door beveiligingswaarborgen toe te passen als onderdeel van een gedocumenteerde alomvattende beveiligingsstrategie.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>De rol van de organisatie in de toeleveringsketen moet worden vastgesteld, gedocumenteerd en gecommuniceerd.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>• De organisatie zou duidelijk moeten kunnen vaststellen wie zich stroomopwaarts en stroomafwaarts van de organisatie bevindt en welke leveranciers diensten, capaciteiten, producten en artikelen aan de organisatie leveren. 
-• De organisatie moet haar standpunt kenbaar maken aan haar toeleveranciers en afnemers, zodat duidelijk wordt waar zij staan in termen van kritisch belang voor de activiteiten van de organisatie.</t>
-        </is>
-      </c>
+          <t>ID.BE-2: De plaats van de organisatie in de kritieke infrastructuur en haar bedrijfstak wordt vastgesteld en gecommuniceerd.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>De organisatie moet haar ICT/OT-omgeving beschermen tegen bedreigingen vanuit de toeleveringsketen door beveiligingswaarborgen toe te passen als onderdeel van een gedocumenteerde alomvattende beveiligingsstrategie.</t>
+          <t>De plaats van de organisatie in de kritieke infrastructuur en haar bedrijfstak moet worden vastgesteld en meegedeeld.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Organisatie die onder de NIS-wetgeving vallen, hebben de verantwoordelijkheid om de andere organisaties in dezelfde sector te kennen om met hen samen te werken om de door de NIS-wetgeving voor die specifieke sector vastgestelde doelstellingen te bereiken.</t>
         </is>
       </c>
     </row>
@@ -835,7 +847,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ID.BE-2: De plaats van de organisatie in de kritieke infrastructuur en haar bedrijfstak wordt vastgesteld en gecommuniceerd.</t>
+          <t>ID.BE-3:  Prioriteiten met betrekking tot de missie, doelstellingen en activiteiten van de organisatie worden vastgesteld en gecommuniceerd.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -844,12 +856,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>De plaats van de organisatie in de kritieke infrastructuur en haar bedrijfstak moet worden vastgesteld en meegedeeld.</t>
+          <t>Prioriteiten met betrekking tot de missie, doelstellingen en activiteiten van de organisatie moeten worden vastgesteld en gecommuniceerd.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Organisatie die onder de NIS-wetgeving vallen, hebben de verantwoordelijkheid om de andere organisaties in dezelfde sector te kennen om met hen samen te werken om de door de NIS-wetgeving voor die specifieke sector vastgestelde doelstellingen te bereiken.</t>
+          <t>De behoefte aan informatiebescherming moet worden vastgesteld en de desbetreffende processen moeten zo nodig worden herzien.</t>
         </is>
       </c>
     </row>
@@ -857,7 +869,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ID.BE-3:  Prioriteiten met betrekking tot de missie, doelstellingen en activiteiten van de organisatie worden vastgesteld en gecommuniceerd.</t>
+          <t>ID.BE-4: Afhankelijkheden en kritieke functies voor de levering van kritieke diensten zijn vastgesteld.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -866,12 +878,12 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Prioriteiten met betrekking tot de missie, doelstellingen en activiteiten van de organisatie moeten worden vastgesteld en gecommuniceerd.</t>
+          <t>De afhankelijkheden en missie-kritische functies voor de levering van kritieke diensten moeten als onderdeel van het risicobeoordelingsproces worden geïdentificeerd, gedocumenteerd en geprioriteerd op basis van hun kriticiteit.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>De behoefte aan informatiebescherming moet worden vastgesteld en de desbetreffende processen moeten zo nodig worden herzien.</t>
+          <t>Afhankelijkheden en bedrijfskritische functies moeten ondersteunende diensten omvatten.</t>
         </is>
       </c>
     </row>
@@ -879,7 +891,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ID.BE-4: Afhankelijkheden en kritieke functies voor de levering van kritieke diensten zijn vastgesteld.</t>
+          <t>ID.BE-5: Voor alle operationele staten (bv. onder dwang/aanval, tijdens herstel, normale operaties) worden vereisten vastgesteld met betrekking tot weerbaarheid ter ondersteuning van de levering van kritieke diensten.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -888,12 +900,13 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>De afhankelijkheden en missie-kritische functies voor de levering van kritieke diensten moeten als onderdeel van het risicobeoordelingsproces worden geïdentificeerd, gedocumenteerd en geprioriteerd op basis van hun kriticiteit.</t>
+          <t>Om de cyberveerkracht te ondersteunen en de levering van kritieke diensten te beveiligen, moeten de nodige eisen worden vastgesteld, gedocumenteerd en de uitvoering ervan getest en goedgekeurd.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Afhankelijkheden en bedrijfskritische functies moeten ondersteunende diensten omvatten.</t>
+          <t>• Overweeg de toepassing van veerkrachtmechanismen ter ondersteuning van normale en ongunstige operationele situaties (bijvoorbeeld failsafe, load balancing, hot swap). 
+• Overweeg rekening te houden met aspecten van bedrijfscontinuïteitsbeheer in bijvoorbeeld Business Impact Analyse (BIA), Disaster Recovery Plan (DRP) en Business Continuity Plan (BCP).</t>
         </is>
       </c>
     </row>
@@ -901,103 +914,75 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ID.BE-5: Voor alle operationele staten (bv. onder dwang/aanval, tijdens herstel, normale operaties) worden vereisten vastgesteld met betrekking tot weerbaarheid ter ondersteuning van de levering van kritieke diensten.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Informatie verwerkende en ondersteunende faciliteiten moeten redundantie toepassen om te voldoen aan de beschikbaarheidseisen, zoals gedefinieerd door de organisatie en/of regelgevende kaders.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>• Overweeg voldoende data- en netwerkredundantie (bijvoorbeeld redundante netwerkapparatuur, servers met load balancing, raid arrays, back-up diensten, 2 aparte datacentra, fail-over voor netwerkverbindingen, 2 ISP's...). 
+• Overweeg bescherming van kritieke apparatuur/diensten tegen stroomuitval en andere storingen als gevolg van onderbrekingen van het elektriciteitsnet (bv. UPS &amp; NO-break, frequente tests, servicecontracten met regelmatig onderhoud, redundante stroombekabeling, 2 verschillende stroomleveranciers...).</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Om de cyberveerkracht te ondersteunen en de levering van kritieke diensten te beveiligen, moeten de nodige eisen worden vastgesteld, gedocumenteerd en de uitvoering ervan getest en goedgekeurd.</t>
+          <t>Er moeten doelstellingen voor hersteltijd en herstelpunten worden vastgesteld voor het herstel van essentiële ICT/OT-systeemprocessen.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>• Overweeg de toepassing van veerkrachtmechanismen ter ondersteuning van normale en ongunstige operationele situaties (bijvoorbeeld failsafe, load balancing, hot swap). 
-• Overweeg rekening te houden met aspecten van bedrijfscontinuïteitsbeheer in bijvoorbeeld Business Impact Analyse (BIA), Disaster Recovery Plan (DRP) en Business Continuity Plan (BCP).</t>
+          <t>• Overweeg de 3-2-1 back-upregel toe te passen om de RPO (“Recovery Point Objective”) en RTO ‘”Recovery Time Objective”) te verbeteren. Houd bijvoorbeeld ten minste 3 kopieën van uw gegevens bij, bewaar er 2 op afzonderlijke locaties en bewaar één kopie op een externe locatie. 
+• Overweeg mechanismen zoals hot swap, load balancing en failsafe toe te passen om de veerkracht te vergroten.</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bestuur (ID.GV)</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Informatie verwerkende en ondersteunende faciliteiten moeten redundantie toepassen om te voldoen aan de beschikbaarheidseisen, zoals gedefinieerd door de organisatie en/of regelgevende kaders.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>• Overweeg voldoende data- en netwerkredundantie (bijvoorbeeld redundante netwerkapparatuur, servers met load balancing, raid arrays, back-up diensten, 2 aparte datacentra, fail-over voor netwerkverbindingen, 2 ISP's...). 
-• Overweeg bescherming van kritieke apparatuur/diensten tegen stroomuitval en andere storingen als gevolg van onderbrekingen van het elektriciteitsnet (bv. UPS &amp; NO-break, frequente tests, servicecontracten met regelmatig onderhoud, redundante stroombekabeling, 2 verschillende stroomleveranciers...).</t>
-        </is>
-      </c>
+          <t>Het beleid, de procedures en de processen voor het beheer en de controle van de regelgevende, juridische, risico-, milieu- en operationele vereisten van de organisatie worden begrepen, en vormen de basis voor het beheer van het cyberbeveiligingsrisico.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Er moeten doelstellingen voor hersteltijd en herstelpunten worden vastgesteld voor het herstel van essentiële ICT/OT-systeemprocessen.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>• Overweeg de 3-2-1 back-upregel toe te passen om de RPO (“Recovery Point Objective”) en RTO ‘”Recovery Time Objective”) te verbeteren. Houd bijvoorbeeld ten minste 3 kopieën van uw gegevens bij, bewaar er 2 op afzonderlijke locaties en bewaar één kopie op een externe locatie. 
-• Overweeg mechanismen zoals hot swap, load balancing en failsafe toe te passen om de veerkracht te vergroten.</t>
-        </is>
-      </c>
+          <t>ID.GV-1:  Het cyberbeveiligingsbeleid van de organisatie wordt vastgesteld en gecommuniceerd.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Bestuur (ID.GV)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Beleid en procedures voor informatiebeveiliging en cyberveiligheid moeten worden opgesteld, gedocumenteerd, geëvalueerd, goedgekeurd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>• Beleid en procedures worden gebruikt om aanvaardbare praktijken en verwachtingen voor de bedrijfsvoering vast te stellen, kunnen worden gebruikt om nieuwe werknemers op te leiden in uw verwachtingen op het gebied van informatiebeveiliging, en kunnen helpen bij een onderzoek in geval van een incident. Deze beleidslijnen en procedures moeten gemakkelijk toegankelijk zijn voor werknemers. 
+• Beleid en procedures voor informatie- en cyberbeveiliging zouden duidelijk de verwachtingen voor de bescherming van de informatie en systemen van de organisatie moeten beschrijven, en hoe het management verwacht dat de middelen van het bedrijf door alle werknemers worden gebruikt en beschermd. 
+• Beleid en procedures worden bij voorkeur ten minste jaarlijks worden herzien en bijgewerkt, en telkens wanneer er veranderingen zijn in de organisatie of de technologie. Telkens wanneer het beleid wordt gewijzigd, is het aangewezen de werknemers op de hoogte te brengen van die wijzigingen.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Het beleid, de procedures en de processen voor het beheer en de controle van de regelgevende, juridische, risico-, milieu- en operationele vereisten van de organisatie worden begrepen, en vormen de basis voor het beheer van het cyberbeveiligingsrisico.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ID.GV-1:  Het cyberbeveiligingsbeleid van de organisatie wordt vastgesteld en gecommuniceerd.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Beleid en procedures voor informatiebeveiliging en cyberveiligheid moeten worden opgesteld, gedocumenteerd, geëvalueerd, goedgekeurd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>• Beleid en procedures worden gebruikt om aanvaardbare praktijken en verwachtingen voor de bedrijfsvoering vast te stellen, kunnen worden gebruikt om nieuwe werknemers op te leiden in uw verwachtingen op het gebied van informatiebeveiliging, en kunnen helpen bij een onderzoek in geval van een incident. Deze beleidslijnen en procedures moeten gemakkelijk toegankelijk zijn voor werknemers. 
-• Beleid en procedures voor informatie- en cyberbeveiliging zouden duidelijk de verwachtingen voor de bescherming van de informatie en systemen van de organisatie moeten beschrijven, en hoe het management verwacht dat de middelen van het bedrijf door alle werknemers worden gebruikt en beschermd. 
-• Beleid en procedures worden bij voorkeur ten minste jaarlijks worden herzien en bijgewerkt, en telkens wanneer er veranderingen zijn in de organisatie of de technologie. Telkens wanneer het beleid wordt gewijzigd, is het aangewezen de werknemers op de hoogte te brengen van die wijzigingen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>Er moet een door het hoger management goedgekeurd informatie- en cyberbeveiligingsbeleid voor de gehele organisatie worden vastgesteld, gedocumenteerd, bijgewerkt bij wijzigingen, en verspreid.</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Het beleid kan bijvoorbeeld het volgende omvatten: 
 • De identificatie en toewijzing van rollen, verantwoordelijkheden, managementbetrokkenheid, coördinatie tussen organisatorische entiteiten, en naleving. Richtsnoeren voor rolprofielen met hun vastgestelde titels, missies, taken, vaardigheden, kennis en competenties zijn beschikbaar in de "European Cybersecurity Skills Framework Role Profiles" van ENISA. (https://www.enisa.europa.eu/publications/european-cybersecurity-skills-framework-role-profiles) 
@@ -1006,11 +991,47 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ID.GV-3: Wettelijke en regelgevende voorschriften inzake cyberbeveiliging, met inbegrip van verplichtingen inzake privacy en burgerlijke vrijheden, worden begrepen en beheerd.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Wettelijke en regelgevende voorschriften over informatie-/cyberbeveiliging, met inbegrip van privacy verplichtingen, moeten worden begrepen en uitgevoerd.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>De wet- en regelgeving inzake informatie-/cyberbeveiliging, met inbegrip van privacy verplichtingen, wordt beheerd.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>• Er zou regelmatig moeten worden nagegaan of voortdurend wordt voldaan aan de wet- en regelgeving inzake informatie-/cyberbeveiliging, met inbegrip van privacy verplichtingen. 
+• Deze eis geldt ook voor aannemers en dienstverleners.</t>
+        </is>
+      </c>
+    </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ID.GV-3: Wettelijke en regelgevende voorschriften inzake cyberbeveiliging, met inbegrip van verplichtingen inzake privacy en burgerlijke vrijheden, worden begrepen en beheerd.</t>
+          <t>ID.GV-4:  Governance- en risicobeheerprocessen adresseren risico's met betrekking tot cyberbeveiliging.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1019,12 +1040,12 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wettelijke en regelgevende voorschriften over informatie-/cyberbeveiliging, met inbegrip van privacy verplichtingen, moeten worden begrepen en uitgevoerd.</t>
+          <t>Als onderdeel van het algemene risicobeheer van de onderneming moet een alomvattende strategie voor het beheer van informatiebeveiliging en cyberbeveiligingsrisico's worden ontwikkeld en bijgewerkt wanneer zich veranderingen voordoen.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Deze strategie zou het bepalen en toewijzen moeten omvatten van de nodige middelen om de bedrijfskritische activa van de organisatie te beschermen.</t>
         </is>
       </c>
     </row>
@@ -1032,21 +1053,24 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>De wet- en regelgeving inzake informatie-/cyberbeveiliging, met inbegrip van privacy verplichtingen, wordt beheerd.</t>
+          <t>Informatie- en cyberbeveiligingsrisico’s moeten worden gedocumenteerd, formeel goedgekeurd, en bij wijzigingen bijgewerkt.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>• Er zou regelmatig moeten worden nagegaan of voortdurend wordt voldaan aan de wet- en regelgeving inzake informatie-/cyberbeveiliging, met inbegrip van privacy verplichtingen. 
-• Deze eis geldt ook voor aannemers en dienstverleners.</t>
+          <t>Overweeg het gebruik van instrumenten voor risicobeheer.</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Risicobeoordeling (ID.RA)</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ID.GV-4:  Governance- en risicobeheerprocessen adresseren risico's met betrekking tot cyberbeveiliging.</t>
+          <t>De organisatie begrijpt het cyberbeveiligingsrisico voor de operaties, activa en betrokken individuen van de organisatie (inclusief missie, functies, imago of reputatie).</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1055,51 +1079,58 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Als onderdeel van het algemene risicobeheer van de onderneming moet een alomvattende strategie voor het beheer van informatiebeveiliging en cyberbeveiligingsrisico's worden ontwikkeld en bijgewerkt wanneer zich veranderingen voordoen.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Deze strategie zou het bepalen en toewijzen moeten omvatten van de nodige middelen om de bedrijfskritische activa van de organisatie te beschermen.</t>
-        </is>
-      </c>
+          <t>ID.RA-1: Kwetsbaarheden van activa worden vastgesteld en gedocumenteerd.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Informatie- en cyberbeveiligingsrisico’s moeten worden gedocumenteerd, formeel goedgekeurd, en bij wijzigingen bijgewerkt.</t>
+          <t>Bedreigingen en kwetsbaarheden moeten worden geïdentificeerd.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Overweeg het gebruik van instrumenten voor risicobeheer.</t>
+          <t>• Een kwetsbaarheid verwijst naar een zwakke plek in de hardware, software of procedures van de organisatie. Het is een gat waardoor een slechte actor toegang kan krijgen tot de activa van de organisatie. Een kwetsbaarheid stelt een organisatie bloot aan bedreigingen. 
+• Een bedreiging is een kwaadaardige of negatieve gebeurtenis die gebruik maakt van een kwetsbaarheid. 
+• Het risico is de kans op verlies en schade wanneer de dreiging zich voordoet.</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Risicobeoordeling (ID.RA)</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Er moet een proces worden ingesteld om kwetsbaarheden van de bedrijfskritische systemen van de organisatie voortdurend te bewaken, te identificeren en te documenteren.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>• Waar dat veilig en haalbaar is, zou het gebruik van kwetsbaarheidsscans moeten worden overwogen 
+• De organisatie zou een testprogramma kunnen opstellen en bijhouden dat past bij haar omvang, complexiteit en rijpheid.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>De organisatie begrijpt het cyberbeveiligingsrisico voor de operaties, activa en betrokken individuen van de organisatie (inclusief missie, functies, imago of reputatie).</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Om ervoor te zorgen dat de werking van de organisatie niet negatief wordt beïnvloed door het testproces, moeten prestatie-/belastingstesten en penetratietesten op de systemen van de organisatie zorgvuldig worden uitgevoerd.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Overweeg het valideren van beveiligingsmaatregelen na elke penetratietest.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ID.RA-1: Kwetsbaarheden van activa worden vastgesteld en gedocumenteerd.</t>
+          <t>ID.RA-2: Informatie over cyberdreigingen wordt ontvangen van fora en bronnen voor informatie-uitwisseling.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1108,14 +1139,12 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bedreigingen en kwetsbaarheden moeten worden geïdentificeerd.</t>
+          <t>Er moet een bewustmakingsprogramma in verband met bedreigingen en kwetsbaarheden worden opgezet dat een organisatie overschrijdend vermogen tot informatie-uitwisseling omvat.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>• Een kwetsbaarheid verwijst naar een zwakke plek in de hardware, software of procedures van de organisatie. Het is een gat waardoor een slechte actor toegang kan krijgen tot de activa van de organisatie. Een kwetsbaarheid stelt een organisatie bloot aan bedreigingen. 
-• Een bedreiging is een kwaadaardige of negatieve gebeurtenis die gebruik maakt van een kwetsbaarheid. 
-• Het risico is de kans op verlies en schade wanneer de dreiging zich voordoet.</t>
+          <t>Een programma voor de bewustmaking van dreigingen en kwetsbaarheden moet permanente contacten omvatten met beveiligingsgroepen en -verenigingen om beveiligingswaarschuwingen en -adviezen te ontvangen. (Beveiligingsgroepen en -verenigingen zijn bijvoorbeeld belangengroepen, fora, beroepsverenigingen, nieuwsgroepen en/of ‘peer groups’ van beveiligingsprofessionals in soortgelijke organisaties). Dit contact kan het delen van informatie over potentiële kwetsbaarheden en incidenten omvatten. Deze uitwisselingsmogelijkheid kan niet-geclassificeerde en geclassificeerde gegevensuitwisseling omvatten.</t>
         </is>
       </c>
     </row>
@@ -1123,13 +1152,12 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Er moet een proces worden ingesteld om kwetsbaarheden van de bedrijfskritische systemen van de organisatie voortdurend te bewaken, te identificeren en te documenteren.</t>
+          <t>Er moet worden vastgesteld waar geautomatiseerde mechanismen kunnen worden toegepast om informatie over beveiligingswaarschuwingen en -adviezen ter beschikking te stellen van belanghebbenden in de organisatie.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>• Waar dat veilig en haalbaar is, zou het gebruik van kwetsbaarheidsscans moeten worden overwogen 
-• De organisatie zou een testprogramma kunnen opstellen en bijhouden dat past bij haar omvang, complexiteit en rijpheid.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -1137,34 +1165,36 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Om ervoor te zorgen dat de werking van de organisatie niet negatief wordt beïnvloed door het testproces, moeten prestatie-/belastingstesten en penetratietesten op de systemen van de organisatie zorgvuldig worden uitgevoerd.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Overweeg het valideren van beveiligingsmaatregelen na elke penetratietest.</t>
-        </is>
-      </c>
+          <t>ID.RA-5: Bedreigingen, kwetsbaarheden, waarschijnlijkheden en gevolgen worden gebruikt om het risico te bepalen.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ID.RA-2: Informatie over cyberdreigingen wordt ontvangen van fora en bronnen voor informatie-uitwisseling.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>De organisatie moet risicobeoordelingen uitvoeren waarbij het risico wordt bepaald aan de hand van bedreigingen, kwetsbaarheden en gevolgen voor bedrijfsprocessen en activa.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>• Herinner dat bedreigingen gebruik maken van kwetsbaarheden (“vulnerability”). 
+• Er zou in kaart moeten worden gebracht wat de gevolgen zijn van het verliezen van vertrouwelijkheid, integriteit en beschikbaarheid voor de activa en gerelateerde bedrijfsprocessen.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Er moet een bewustmakingsprogramma in verband met bedreigingen en kwetsbaarheden worden opgezet dat een organisatie overschrijdend vermogen tot informatie-uitwisseling omvat.</t>
+          <t>De organisatie moet risicobeoordelingen uitvoeren en documenteren waarin het risico wordt bepaald door bedreigingen, kwetsbaarheden, gevolgen voor bedrijfsprocessen en activa, en de waarschijnlijkheid dat deze zich voordoen.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Een programma voor de bewustmaking van dreigingen en kwetsbaarheden moet permanente contacten omvatten met beveiligingsgroepen en -verenigingen om beveiligingswaarschuwingen en -adviezen te ontvangen. (Beveiligingsgroepen en -verenigingen zijn bijvoorbeeld belangengroepen, fora, beroepsverenigingen, nieuwsgroepen en/of ‘peer groups’ van beveiligingsprofessionals in soortgelijke organisaties). Dit contact kan het delen van informatie over potentiële kwetsbaarheden en incidenten omvatten. Deze uitwisselingsmogelijkheid kan niet-geclassificeerde en geclassificeerde gegevensuitwisseling omvatten.</t>
+          <t>• De risicobeoordeling zou bedreigingen van insiders en externe partijen moeten omvatten. 
+• Kwalitatieve en/of kwantitatieve risicoanalysemethoden (MAPGOOD, ISO27005, CIS RAM, ...) kunnen samen met softwaretooling worden gebruikt.</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1202,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Er moet worden vastgesteld waar geautomatiseerde mechanismen kunnen worden toegepast om informatie over beveiligingswaarschuwingen en -adviezen ter beschikking te stellen van belanghebbenden in de organisatie.</t>
+          <t>De resultaten van risicobeoordelingen moeten aan de belanghebbenden worden gecommuniceerd.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1185,7 +1215,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ID.RA-5: Bedreigingen, kwetsbaarheden, waarschijnlijkheden en gevolgen worden gebruikt om het risico te bepalen.</t>
+          <t>ID.RA-6: Respons op risico’s worden vastgesteld en geprioriteerd.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1194,60 +1224,10 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>De organisatie moet risicobeoordelingen uitvoeren waarbij het risico wordt bepaald aan de hand van bedreigingen, kwetsbaarheden en gevolgen voor bedrijfsprocessen en activa.</t>
+          <t>Er moet een alomvattende strategie worden ontwikkeld en uitgevoerd om de risico's voor de kritieke systemen van de organisatie te beheren, die de identificatie en prioritering van risicomaatregelen omvat.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
-        <is>
-          <t>• Herinner dat bedreigingen gebruik maken van kwetsbaarheden (“vulnerability”). 
-• Er zou in kaart moeten worden gebracht wat de gevolgen zijn van het verliezen van vertrouwelijkheid, integriteit en beschikbaarheid voor de activa en gerelateerde bedrijfsprocessen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>De organisatie moet risicobeoordelingen uitvoeren en documenteren waarin het risico wordt bepaald door bedreigingen, kwetsbaarheden, gevolgen voor bedrijfsprocessen en activa, en de waarschijnlijkheid dat deze zich voordoen.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>• De risicobeoordeling zou bedreigingen van insiders en externe partijen moeten omvatten. 
-• Kwalitatieve en/of kwantitatieve risicoanalysemethoden (MAPGOOD, ISO27005, CIS RAM, ...) kunnen samen met softwaretooling worden gebruikt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>De resultaten van risicobeoordelingen moeten aan de belanghebbenden worden gecommuniceerd.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ID.RA-6: Respons op risico’s worden vastgesteld en geprioriteerd.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Er moet een alomvattende strategie worden ontwikkeld en uitgevoerd om de risico's voor de kritieke systemen van de organisatie te beheren, die de identificatie en prioritering van risicomaatregelen omvat.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>• Management en werknemers zou moeten worden betrokken bij informatie- en cyberbeveiliging. 
 • Er zou moeten worden vastgesteld wat de belangrijkste activa zijn en hoe deze worden beschermd. 
@@ -1256,20 +1236,68 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Risicobeheer (ID.RM)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>De prioriteiten, beperkingen, risicotoleranties en aannames van de organisatie worden vastgesteld en gebruikt ter ondersteuning van operationele risicobeslissingen.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ID.RM-1: Risicobeheerprocessen worden vastgesteld, beheerd en goedgekeurd door belanghebbenden in de organisatie.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Een cyberrisicobeheerproces dat de belangrijkste interne en externe belanghebbenden identificeert en het aanpakken van risico-gerelateerde kwesties en informatie vergemakkelijkt, moet worden gecreëerd, gedocumenteerd, herzien, goedgekeurd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tot de externe belanghebbenden behoren klanten, investeerders, aandeelhouders, leveranciers, overheidsinstanties en de gemeenschap in het algemeen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ID.RM-2: De risicotolerantie van de organisatie wordt bepaald en duidelijk uitgedrukt.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Risicobeheer (ID.RM)</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>De organisatie moet duidelijk haar risicobereidheid (“risk appetite”) bepalen.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>De bepaling en uitdrukking van de risicotolerantie (risicobereidheid) moeten in overeenstemming zijn met het beleid inzake informatiebeveiliging en cyberveiligheid, zodat de samenhang tussen beleid, risicotolerantie en maatregelen gemakkelijker kan worden aangetoond.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>De prioriteiten, beperkingen, risicotoleranties en aannames van de organisatie worden vastgesteld en gebruikt ter ondersteuning van operationele risicobeslissingen.</t>
+          <t>ID.RM-3:  De organisatie bepaalt haar risicotolerantie op basis van haar rol in de analyse van kritieke infrastructuur en sectorspecifieke risico's.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1278,29 +1306,33 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ID.RM-1: Risicobeheerprocessen worden vastgesteld, beheerd en goedgekeurd door belanghebbenden in de organisatie.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>De risicotolerantie van de organisatie wordt bepaald door haar rol in de kritische infrastructuur en sectorspecifieke risicoanalyses.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Risicobeheer van de toeleveringsketen (ID.SC)</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Een cyberrisicobeheerproces dat de belangrijkste interne en externe belanghebbenden identificeert en het aanpakken van risico-gerelateerde kwesties en informatie vergemakkelijkt, moet worden gecreëerd, gedocumenteerd, herzien, goedgekeurd en bijgewerkt wanneer zich wijzigingen voordoen.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Tot de externe belanghebbenden behoren klanten, investeerders, aandeelhouders, leveranciers, overheidsinstanties en de gemeenschap in het algemeen.</t>
-        </is>
-      </c>
+          <t>De prioriteiten, beperkingen, risicotoleranties en aannames van de organisatie worden vastgesteld en gebruikt ter ondersteuning van risicobeslissingen in verband met het beheer van risico's in de toeleveringsketen. De organisatie heeft de processen voor het identificeren, beoordelen en beheren van risico's in de toeleveringsketen vastgesteld en geïmplementeerd.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ID.RM-2: De risicotolerantie van de organisatie wordt bepaald en duidelijk uitgedrukt.</t>
+          <t>ID.SC-1:  De processen voor het beheer van cyberrisico's in de toeleveringsketen worden geïdentificeerd, vastgesteld, beoordeeld, beheerd en goedgekeurd door de belanghebbenden van de organisatie.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1309,12 +1341,12 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>De organisatie moet duidelijk haar risicobereidheid (“risk appetite”) bepalen.</t>
+          <t>De organisatie moet een risicobeheerproces voor de cybertoeleveringsketen documenteren, herzien, goedkeuren, bijwerken wanneer zich wijzigingen voordoen, en implementeren dat de identificatie, beoordeling en beperking van de risico's in verband met de gedistribueerde en onderling verbonden aard van de toeleveringsketens van ICT/OT-producten en -diensten ondersteunt.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>De bepaling en uitdrukking van de risicotolerantie (risicobereidheid) moeten in overeenstemming zijn met het beleid inzake informatiebeveiliging en cyberveiligheid, zodat de samenhang tussen beleid, risicotolerantie en maatregelen gemakkelijker kan worden aangetoond.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1354,7 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ID.RM-3:  De organisatie bepaalt haar risicotolerantie op basis van haar rol in de analyse van kritieke infrastructuur en sectorspecifieke risico's.</t>
+          <t>ID.SC-2: Leveranciers en externe partners van informatiesystemen, componenten en diensten worden geïdentificeerd, geprioriteerd en beoordeeld met behulp van een risicobeoordelingsproces voor de cybertoeleveringsketen.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1331,29 +1363,33 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>De risicotolerantie van de organisatie wordt bepaald door haar rol in de kritische infrastructuur en sectorspecifieke risicoanalyses.</t>
+          <t>De organisatie moet ten minste jaarlijks of bij een wijziging in de kritieke systemen, de operationele omgeving of de toeleveringsketen van de organisatie, risicobeoordelingen voor de cybertoeleveringsketen uitvoeren; Deze beoordelingen moeten worden gedocumenteerd en de resultaten moeten worden verspreid onder de relevante belanghebbenden, met inbegrip van degenen die verantwoordelijk zijn voor ICT/OT-systemen.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Deze beoordeling moet de potentiële negatieve gevolgen voor de organisatie van de risico's in verband met de gedistribueerde en onderling verbonden aard van de toeleveringsketens van ICT/OT-producten en - diensten vaststellen en prioriteren.</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Risicobeheer van de toeleveringsketen (ID.SC)</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Een moet een gedocumenteerde lijst worden opgesteld van alle leveranciers, verkopers en partners van de organisatie die bij een ernstig incident betrokken kunnen zijn; Die lijst moet worden bijgewerkt wanneer nodig en online en offline beschikbaar worden gesteld.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Deze lijst zou de contactgegevens moeten bevatten van leveranciers, verkopers en partners aangevuld met de diensten die zij leveren, zodat zij kunnen worden gecontacteerd voor bijstand in geval van een storing of dienstonderbreking.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>De prioriteiten, beperkingen, risicotoleranties en aannames van de organisatie worden vastgesteld en gebruikt ter ondersteuning van risicobeslissingen in verband met het beheer van risico's in de toeleveringsketen. De organisatie heeft de processen voor het identificeren, beoordelen en beheren van risico's in de toeleveringsketen vastgesteld en geïmplementeerd.</t>
+          <t>ID.SC-3: Contracten met leveranciers en externe partners worden gebruikt om passende maatregelen te implementeren, die dermate zijn ontworpen opdat wordt beantwoord aan de doelstellingen van het cyberbeveiligingsprogramma van de organisatie en haar cyber risicobeheersplan voor de toeleveringsketen.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1362,21 +1398,27 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ID.SC-1:  De processen voor het beheer van cyberrisico's in de toeleveringsketen worden geïdentificeerd, vastgesteld, beoordeeld, beheerd en goedgekeurd door de belanghebbenden van de organisatie.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>Op basis van de resultaten van de risicobeoordeling van de cybertoeleveringsketen moet een contractueel kader voor leveranciers en externe partners worden vastgesteld om het delen van gevoelige informatie, en gedistribueerde en onderling verbonden ICT/OT-producten en - diensten, aan te pakken.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>• Entiteiten die niet onder de NIS-wetgeving vallen, zouden enkel bedrijfskritische leveranciers en externe partners in aanmerking mogen nemen. 
+• Vergeet niet dat aan de GDPR-vereisten moet worden voldaan wanneer bedrijfsinformatie persoonsgegevens bevat (van toepassing op alle niveaus), d.w.z. dat in het contractuele kader beveiligingsmaatregelen hieromtrent moeten worden genomen.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>De organisatie moet een risicobeheerproces voor de cybertoeleveringsketen documenteren, herzien, goedkeuren, bijwerken wanneer zich wijzigingen voordoen, en implementeren dat de identificatie, beoordeling en beperking van de risico's in verband met de gedistribueerde en onderling verbonden aard van de toeleveringsketens van ICT/OT-producten en -diensten ondersteunt.</t>
+          <t>Er moeten contractuele vereisten inzake informatie- en cyberbeveiliging voor leveranciers en externe partners worden geïmplementeerd, om te zorgen dat er een controleerbaar proces is voor het verhelpen van gebreken, en om te waarborgen dat gebreken worden verholpen die worden vastgesteld tijdens informatie- en cyberbeveiligingstesten en evaluaties. - kernmaatregel -</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>• Informatiesystemen die software (of firmware) bevatten met recentelijk aangekondigde softwaregebreken (en potentiële kwetsbaarheden als gevolg van die gebreken) zouden moeten worden geïdentificeerd. 
+• Nieuwe patches, service packs en hot fixes die relevant zijn voor de beveiliging zouden moeten worden geïnstalleerd, en deze patches, service packs en hot fixes zouden vóór de installatie moeten worden getest op doeltreffendheid en mogelijke neveneffecten op de informatiesystemen van de organisatie. Gebreken die worden ontdekt tijdens beveiligingsbeoordelingen, voortdurende monitoring, activiteiten in het kader van de respons op incidenten of de afhandeling van tekortkomingen in informatiesystemen, worden ook snel aangepakt. Het verhelpen van fouten zou moeten worden opgenomen in het configuratiebeheer als een noodwijziging.</t>
         </is>
       </c>
     </row>
@@ -1384,34 +1426,34 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ID.SC-2: Leveranciers en externe partners van informatiesystemen, componenten en diensten worden geïdentificeerd, geprioriteerd en beoordeeld met behulp van een risicobeoordelingsproces voor de cybertoeleveringsketen.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>De organisatie moet contractuele voorschriften vaststellen die haar in staat stellen de door leveranciers en externe partners geïmplementeerde programma's voor "informatiebeveiliging en cyberveiligheid" te evalueren. - kernmaatregel -</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>De organisatie moet ten minste jaarlijks of bij een wijziging in de kritieke systemen, de operationele omgeving of de toeleveringsketen van de organisatie, risicobeoordelingen voor de cybertoeleveringsketen uitvoeren; Deze beoordelingen moeten worden gedocumenteerd en de resultaten moeten worden verspreid onder de relevante belanghebbenden, met inbegrip van degenen die verantwoordelijk zijn voor ICT/OT-systemen.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Deze beoordeling moet de potentiële negatieve gevolgen voor de organisatie van de risico's in verband met de gedistribueerde en onderling verbonden aard van de toeleveringsketens van ICT/OT-producten en - diensten vaststellen en prioriteren.</t>
-        </is>
-      </c>
+          <t>ID.SC-4: Leveranciers en externe partners worden routinematig beoordeeld aan de hand van audits, testresultaten of andere vormen van evaluaties om te bevestigen dat zij aan hun contractuele verplichtingen voldoen.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Een moet een gedocumenteerde lijst worden opgesteld van alle leveranciers, verkopers en partners van de organisatie die bij een ernstig incident betrokken kunnen zijn; Die lijst moet worden bijgewerkt wanneer nodig en online en offline beschikbaar worden gesteld.</t>
+          <t>De organisatie moet de naleving van de contractuele verplichtingen door leveranciers en externe partners beoordelen aan de hand van routinematig nazicht van audits, testresultaten en andere evaluaties</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Deze lijst zou de contactgegevens moeten bevatten van leveranciers, verkopers en partners aangevuld met de diensten die zij leveren, zodat zij kunnen worden gecontacteerd voor bijstand in geval van een storing of dienstonderbreking.</t>
+          <t>Entiteiten die niet onder de NIS-wetgeving vallen, zouden zich kunnen beperken tot bedrijfskritische leveranciers en partners.</t>
         </is>
       </c>
     </row>
@@ -1419,36 +1461,34 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ID.SC-3: Contracten met leveranciers en externe partners worden gebruikt om passende maatregelen te implementeren, die dermate zijn ontworpen opdat wordt beantwoord aan de doelstellingen van het cyberbeveiligingsprogramma van de organisatie en haar cyber risicobeheersplan voor de toeleveringsketen.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>De organisatie moet de naleving van de contractuele verplichtingen door leveranciers en externe partners beoordelen door regelmatig onafhankelijke audits, testresultaten en andere evaluaties van derden te bekijken.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>De diepgang van de evaluatie moet afhangen van het kritieke karakter van de geleverde producten en diensten.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Op basis van de resultaten van de risicobeoordeling van de cybertoeleveringsketen moet een contractueel kader voor leveranciers en externe partners worden vastgesteld om het delen van gevoelige informatie, en gedistribueerde en onderling verbonden ICT/OT-producten en - diensten, aan te pakken.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>• Entiteiten die niet onder de NIS-wetgeving vallen, zouden enkel bedrijfskritische leveranciers en externe partners in aanmerking mogen nemen. 
-• Vergeet niet dat aan de GDPR-vereisten moet worden voldaan wanneer bedrijfsinformatie persoonsgegevens bevat (van toepassing op alle niveaus), d.w.z. dat in het contractuele kader beveiligingsmaatregelen hieromtrent moeten worden genomen.</t>
-        </is>
-      </c>
+          <t>ID.SC-5: Respons- en herstelplanning en tests worden uitgevoerd met leveranciers en derde partijen.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Er moeten contractuele vereisten inzake informatie- en cyberbeveiliging voor leveranciers en externe partners worden geïmplementeerd, om te zorgen dat er een controleerbaar proces is voor het verhelpen van gebreken, en om te waarborgen dat gebreken worden verholpen die worden vastgesteld tijdens informatie- en cyberbeveiligingstesten en evaluaties. - kernmaatregel -</t>
+          <t>De organisatie moet sleutelpersoneel van leveranciers en externe partners identificeren en documenteren om hen als belanghebbenden bij de respons- en herstelplanning te betrekken.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>• Informatiesystemen die software (of firmware) bevatten met recentelijk aangekondigde softwaregebreken (en potentiële kwetsbaarheden als gevolg van die gebreken) zouden moeten worden geïdentificeerd. 
-• Nieuwe patches, service packs en hot fixes die relevant zijn voor de beveiliging zouden moeten worden geïnstalleerd, en deze patches, service packs en hot fixes zouden vóór de installatie moeten worden getest op doeltreffendheid en mogelijke neveneffecten op de informatiesystemen van de organisatie. Gebreken die worden ontdekt tijdens beveiligingsbeoordelingen, voortdurende monitoring, activiteiten in het kader van de respons op incidenten of de afhandeling van tekortkomingen in informatiesystemen, worden ook snel aangepakt. Het verhelpen van fouten zou moeten worden opgenomen in het configuratiebeheer als een noodwijziging.</t>
+          <t>Entiteiten die niet onder de NIS-wetgeving vallen, zouden zich kunnen beperken tot bedrijfskritische leveranciers en partners.</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1496,7 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>De organisatie moet contractuele voorschriften vaststellen die haar in staat stellen de door leveranciers en externe partners geïmplementeerde programma's voor "informatiebeveiliging en cyberveiligheid" te evalueren. - kernmaatregel -</t>
+          <t>De organisatie moet het sleutelpersoneel van leveranciers en externe partners identificeren en documenteren om hen als belanghebbenden te betrekken bij het testen en uitvoeren van de respons- en herstelplannen.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1466,119 +1506,44 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ID.SC-4: Leveranciers en externe partners worden routinematig beoordeeld aan de hand van audits, testresultaten of andere vormen van evaluaties om te bevestigen dat zij aan hun contractuele verplichtingen voldoen.</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BESCHERMEN (PR)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Identiteitsbeheer, authenticatie en toegangscontrole (PR.AC)</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>De organisatie moet de naleving van de contractuele verplichtingen door leveranciers en externe partners beoordelen aan de hand van routinematig nazicht van audits, testresultaten en andere evaluaties</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Entiteiten die niet onder de NIS-wetgeving vallen, zouden zich kunnen beperken tot bedrijfskritische leveranciers en partners.</t>
-        </is>
-      </c>
+          <t>De toegang tot fysieke en logische activa en bijbehorende faciliteiten is beperkt tot bevoegde gebruikers, processen en apparaten, en wordt beheerd in overeenstemming met het ingeschatte risico van ongeoorloofde toegang tot toegelaten activiteiten en transacties.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>De organisatie moet de naleving van de contractuele verplichtingen door leveranciers en externe partners beoordelen door regelmatig onafhankelijke audits, testresultaten en andere evaluaties van derden te bekijken.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>De diepgang van de evaluatie moet afhangen van het kritieke karakter van de geleverde producten en diensten.</t>
-        </is>
-      </c>
+          <t>PR.AC-1: Identiteiten en referenties (“credentials”) worden afgegeven, beheerd, geverifieerd, ingetrokken en gecontroleerd voor geautoriseerde apparaten, gebruikers en processen.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ID.SC-5: Respons- en herstelplanning en tests worden uitgevoerd met leveranciers en derde partijen.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>De organisatie moet sleutelpersoneel van leveranciers en externe partners identificeren en documenteren om hen als belanghebbenden bij de respons- en herstelplanning te betrekken.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Entiteiten die niet onder de NIS-wetgeving vallen, zouden zich kunnen beperken tot bedrijfskritische leveranciers en partners.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>De organisatie moet het sleutelpersoneel van leveranciers en externe partners identificeren en documenteren om hen als belanghebbenden te betrekken bij het testen en uitvoeren van de respons- en herstelplannen.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>BESCHERMEN (PR)</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Identiteitsbeheer, authenticatie en toegangscontrole (PR.AC)</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>De toegang tot fysieke en logische activa en bijbehorende faciliteiten is beperkt tot bevoegde gebruikers, processen en apparaten, en wordt beheerd in overeenstemming met het ingeschatte risico van ongeoorloofde toegang tot toegelaten activiteiten en transacties.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PR.AC-1: Identiteiten en referenties (“credentials”) worden afgegeven, beheerd, geverifieerd, ingetrokken en gecontroleerd voor geautoriseerde apparaten, gebruikers en processen.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
-        <is>
           <t>Identiteiten en referenties (“credentials”) voor geautoriseerde apparaten en gebruikers moeten worden beheerd. -kernmaatregel-</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Identiteiten en referenties voor geautoriseerde apparaten en gebruikers kunnen worden beheerd door middel van een wachtwoordbeleid. Een wachtwoordbeleid is een reeks regels die ontworpen zijn om de ICT/OT-beveiliging te verbeteren door de organisatie aan te moedigen om: (Niet limitatieve lijst en maatregelen die in voorkomend geval kunnen worden overwogen) 
 • Alle standaard wachtwoorden te wijzigen. 
@@ -1591,78 +1556,78 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Identiteiten en referenties (“credentials”) voor geautoriseerde apparaten en gebruikers worden beheerd, waar mogelijk via geautomatiseerde mechanismen.</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>• Geautomatiseerde mechanismen kunnen het beheer en de controle van referenties (“credentials”) van informatiesystemen helpen ondersteunen. 
 • Denk aan sterke gebruikersauthenticatie, dat wil zeggen een authenticatie gebaseerd op het gebruik van ten minste twee authenticatiefactoren uit verschillende categorieën van kennis (iets wat alleen de gebruiker weet), bezit (iets wat alleen de gebruiker bezit) of inferentie (iets wat de gebruiker is) die onafhankelijk van elkaar zijn, in die zin dat het doorbreken van één ervan de betrouwbaarheid van de andere niet in gevaar brengt, en zodanig is ontworpen dat de vertrouwelijkheid van de authenticatiegegevens wordt beschermd.</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
         <is>
           <t>De systeemgegevens moeten na een bepaalde periode van inactiviteit worden gedeactiveerd, tenzij dit de veilige werking van (kritische) processen in gevaar zou brengen.</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>• Om de veilige werking te garanderen, zouden service-accounts moeten worden gebruikt voor lopende processen en diensten. 
 • Overweeg het gebruik van een formele toegangsprocedure voor externe partijen</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Voor transacties binnen de kritieke systemen van de organisatie moet de organisatie het volgende implementeren: • Multifactor-authenticatie voor eindgebruikers (MFA of "sterke authenticatie"). • Op certificaten gebaseerde authenticatie voor systeem-naar-systeem communicatie</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Overweeg het gebruik van SSO (Single Sign On) in combinatie met MFA voor de interne en externe kritische systemen van de organisatie.</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
         <is>
           <t>De kritieke systemen van de organisatie moeten worden gecontroleerd op atypisch gebruik van systeemgegevens. Referenties ‘”credentials” die geassocieerd worden met aanzienlijke risico's moeten worden uitgeschakeld.</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>• Overweeg het aantal mislukte aanmeldingspogingen te beperken door een automatische blokkering toe te passen. 
 • Het vergrendelde account zou niet toegankelijk mogen zijn totdat het opnieuw is ingesteld of de duur van de accountvergrendeling is verstreken.</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
         <is>
           <t>PR.AC-2:  De fysieke toegang tot activa wordt beheerd en beschermd.</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr">
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
         <is>
           <t>De fysieke toegang tot de faciliteit, de servers en de netwerkcomponenten moet worden beheerd.</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>• Overweeg om sleutels voor toegang tot de gebouwen en alarmcodes strikt te beheren. De volgende regels moeten in overweging worden genomen: 
 	o Haal altijd de sleutels of badges van een werknemer terug wanneer deze het bedrijf definitief verlaat. 
@@ -1672,14 +1637,14 @@
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Het beheer van fysieke toegang moet maatregelen omvatten voor de toegang in noodsituaties.</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>• De fysieke toegangscontrole kan bijvoorbeeld bestaan uit: lijsten van bevoegde personen, identiteitsdocumenten, vereisten inzake begeleiding van bv. bezoekers, bewakers, hekken, draaihekken, sloten, monitoring van de toegang tot de faciliteit, camerabewaking. 
 • De volgende maatregelen kunnen worden overwogen: 
@@ -1690,50 +1655,50 @@
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
         <is>
           <t>De fysieke toegang tot kritieke zones moet worden gecontroleerd boven op de fysieke toegang tot de faciliteit.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Dit kan bijvoorbeeld gaan over: productie, O&amp;O, apparatuur voor kritische systemen van de organisatie (serverruimtes...)</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Activa gerelateerd met kritieke zones moeten fysiek worden beschermd.</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>• Overweeg om stroomapparatuur, stroombekabeling, netwerkbekabeling en netwerkinterfaces te beschermen tegen toevallige schade, verstoring en fysiek geknoei. 
 • Overweeg redundante en fysiek gescheiden stroomsystemen te implementeren voor de kritische activiteiten van de organisatie.</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
         <is>
           <t>PR.AC-3:  De toegang op afstand wordt beheerd.</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr">
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
         <is>
           <t>De draadloze toegangspunten van de organisatie moeten worden beveiligd.</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Denk aan het volgende wanneer een draadloos netwerk wordt gebruikt: 
 • Wijzig het administratieve wachtwoord bij de installatie van een draadloos toegangspunt. 
@@ -1745,14 +1710,14 @@
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Gebruiksbeperkingen, verbindingsvereisten, implementatierichtlijnen en autorisaties voor toegang op afstand tot de kritieke systeemomgeving van de organisatie moeten worden vastgesteld, gedocumenteerd en geïmplementeerd. - kernmaatregel –</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Overweeg het volgende: 
 • Tot de methoden voor toegang op afstand behoren bijvoorbeeld draadloze, breedband-, Virtual Private Network (VPN)-verbindingen, verbindingen met mobiele apparatuur en communicatie via externe netwerken. 
@@ -1762,62 +1727,62 @@
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
         <is>
           <t>De toegang op afstand tot de kritieke systemen van de organisatie moet worden gecontroleerd en waar nodig moeten cryptografische mechanismen worden toegepast.</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Dit houdt in dat geprivilegieerde functies enkel na autorisatie vanop afstand toegang zouden mogen krijgen.</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
         <is>
           <t>De netwerken van de organisatie die op afstand toegankelijk zijn, moeten worden beveiligd, onder meer door middel van multifactorauthenticatie (MFA). - kernmaatregel –</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>MFA zou moeten worden afgedwongen (bv. 2FA) op internetgerichte systemen, zoals e-mail, remote desktop en Virtual Private Network (VPN's).</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
         <is>
           <t>De beveiliging van verbindingen met externe systemen moet worden geverifieerd en gekaderd door gedocumenteerde overeenkomsten.</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Toegang vanaf vooraf bepaalde IP-adressen kan worden overwogen.</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
         <is>
           <t>PR.AC-4:  De toegangsrechten en machtigingen worden beheerd, met inachtneming van de beginselen van "least privilege" en scheiding van taken.</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr">
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
         <is>
           <t>De toegangsrechten voor gebruikers tot de systemen van de organisatie moeten worden gedefinieerd en beheerd. - kernmaatregel –</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Het volgende zou in overweging moeten worden genomen: 
 • Opstellen en regelmatig herzien van toegangslijsten per systeem (bestanden, servers, software, databases, enz.), eventueel via analyse van de Active Directory in op Windows gebaseerde systemen, met als doel te bepalen wie welke toegang (al dan niet geprivilegieerd) nodig heeft om zijn taken in de organisatie uit te voeren. 
@@ -1829,53 +1794,53 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Waar mogelijk worden geautomatiseerde mechanismen toegepast ter ondersteuning van het beheer van gebruikersaccounts op de kritieke systemen van de organisatie, met inbegrip van het uitschakelen, controleren, rapporteren en verwijderen van gebruikersaccounts.</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Overweeg elke persoon met toegang tot de kritieke systemen van de organisatie afzonderlijk te identificeren met een gebruikersnaam om generieke en anonieme accounts en toegang te verwijderen.</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
         <is>
           <t>In het toegangscontrolebeleid van de organisatie moeten beperkingen van het accountgebruik voor specifieke tijdsperioden en locaties in aanmerking worden genomen en dienovereenkomstig worden toegepast.</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Specifieke beperkingen kunnen bijvoorbeeld bestaan uit het beperken van het gebruik tot bepaalde dagen van de week, tijdstippen van de dag of specifieke tijdsperioden.</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Er moet worden vastgesteld wie toegang moet hebben tot de bedrijfskritische informatie en technologie van de organisatie, en de middelen om die toegang te krijgen. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Middelen om toegang te krijgen kunnen zijn: een sleutel, wachtwoord, code of administratief privilege.</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
         <is>
           <t>De toegang van werknemers tot gegevens en informatie moet worden beperkt tot de systemen en specifieke informatie die zij nodig hebben om hun werk te doen (het beginsel van "least privilege"). - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Het beginsel van “Least Privilege” moet worden opgevat als het beginsel dat een beveiligingsarchitectuur zo moet worden ontworpen dat elke werknemer de minimale systeembronnen en machtigingen krijgt die de werknemer nodig heeft om zijn functie uit te oefenen. Overweeg: 
 • Niet toe te staan dat een werknemer toegang heeft tot alle bedrijfsinformatie. 
@@ -1884,14 +1849,14 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Bij het beheer van de toegangsrechten wordt het principe van functiesplitsing gehanteerd (Separation of Duties – SoD).</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Functiesplitsing (Separation of Duties – SoD) omvat bijvoorbeeld: 
 • Het verdelen van operationele functies en systeemondersteunende functies over verschillende rollen. 
@@ -1901,14 +1866,14 @@
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Niemand heeft beheerdersrechten voor dagelijkse taken. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Overweeg het volgende: 
 • Scheid beheerdersaccounts van gebruikersaccounts. 
@@ -1918,36 +1883,36 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Geprivilegieerde gebruikers moeten worden beheerd, gemonitord en geaudit.</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
         <is>
           <t>PR.AC-5: Netwerkintegriteit (netwerksegregatie, netwerksegmentatie...) wordt beschermd.</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr">
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Op alle netwerken van de organisatie moeten firewalls worden geïnstalleerd en geactiveerd. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Overweeg het volgende: 
 • Installeer en gebruik een firewall tussen het interne netwerk en het internet. Dit kan een functie zijn van een (draadloos) toegangspunt/router, of het kan een functie zijn van een door de Internet Service Provider (ISP) geleverde router. 
@@ -1958,54 +1923,54 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Waar nodig moet de netwerkintegriteit van de kritieke systemen van de organisatie worden beschermd door netwerksegmentatie en -scheiding. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>• Overweeg verschillende beveiligingszones in het netwerk te creëren (bijvoorbeeld basisnetwerksegmentatie via VLAN's of andere mechanismen voor netwerktoegangscontrole) en het verkeer tussen deze zones te controleren/bewaken. 
 • Wanneer het netwerk "vlak" is, kan de compromittering van een vitale netwerkcomponent leiden tot de compromittering van het gehele netwerk.</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Waar nodig moet de netwerkintegriteit van de kritieke systemen van de organisatie worden beschermd door: (1) Identificeren, documenteren en controleren van verbindingen tussen systeemcomponenten. (2)   Externe verbindingen met de kritieke systemen van de organisatie te beperken. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Mechanismen voor grensbeveiliging zijn bijvoorbeeld routers, gateways, uni directionele gateways, datadiodes en firewalls die systeemcomponenten scheiden in logisch gescheiden netwerken of subnetwerken.</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
         <is>
           <t>De organisatie moet, waar mogelijk, geauthentiseerde proxyservers implementeren voor gedefinieerd communicatieverkeer tussen de kritieke systemen van de organisatie en externe netwerken.</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
         <is>
           <t>De organisatie moet verbindingen en communicatie aan de buitengrenzen en aan belangrijke interne grenzen binnen de kritieke systemen van de organisatie bewaken en controleren door waar nodig grensbeschermingsvoorzieningen te implementeren. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Overweeg de uitvoering van de volgende aanbevelingen: 
 • Scheid uw openbare WIFI-netwerk van uw bedrijfsnetwerk. 
@@ -2018,125 +1983,120 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat de kritieke systemen van de organisatie veilig uitvallen wanneer een grensbeschermingsvoorziening operationeel faalt.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PR.AC-6: Identiteiten worden aangetoond en verbonden aan referenties (“credentials”) en bevestigd in interacties.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>De organisatie moet gedocumenteerde procedures implementeren om de identiteit van personen te verifiëren alvorens referenties (“credentials”) af te geven die toegang geven tot de systemen van de organisatie.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat unieke referenties worden gebruikt voor elke geverifieerde gebruiker, elk apparaat en elk proces dat interageert met de kritieke systemen van de organisatie; zij moet ervoor zorgen dat deze worden geverifieerd en dat unieke identificatiecodes worden vastgelegd bij het uitvoeren van systeeminteracties.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PR.AC-7: Identiteiten worden aangetoond en verbonden aan referenties (“credentials”) en bevestigd in interacties.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>De organisatie moet een gedocumenteerde risicobeoordeling uitvoeren op de kritieke systeemtransacties van de organisatie en gebruikers, apparaten en andere middelen authentiseren (bv. single-factor, multifactor) in verhouding tot het risico van de transactie (bv. de veiligheids- en privacy risico’s van personen en andere organisatorische risico's). - kernmaatregel -</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Overweeg voor nieuwe systemen een op beveiliging gebaseerde ontwerp (“security-by-design”); voor bestaande systemen zou een afzonderlijke risicobeoordeling moeten worden gebruikt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bewustmaking en opleiding (PR.AT)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Het personeel en de partners van de organisatie krijgen voorlichting over cyberbeveiligingsbewustzijn en worden opgeleid om hun taken en verantwoordelijkheden op het gebied van cyberbeveiliging overeenkomstig de desbetreffende beleidsmaatregelen, procedures en overeenkomsten uit te voeren.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>De organisatie moet ervoor zorgen dat de kritieke systemen van de organisatie veilig uitvallen wanneer een grensbeschermingsvoorziening operationeel faalt.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>PR.AT-1: Alle gebruikers worden geïnformeerd en opgeleid.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PR.AC-6: Identiteiten worden aangetoond en verbonden aan referenties (“credentials”) en bevestigd in interacties.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>De werknemers moeten de nodige opleiding krijgen.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>• Tot de werknemers behoren alle gebruikers en beheerders van de ICT/OT-systemen; zij zouden onmiddellijk bij indiensttreding en daarna regelmatig moeten worden opgeleid over het informatiebeveiligingsbeleid van de onderneming en over wat er van hen wordt verwacht om de bedrijfsinformatie en -technologie te beschermen. 
+• De opleiding zou voortdurend moeten worden bijgewerkt en versterkt door bewustmakingscampagnes.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>De organisatie moet gedocumenteerde procedures implementeren om de identiteit van personen te verifiëren alvorens referenties (“credentials”) af te geven die toegang geven tot de systemen van de organisatie.</t>
+          <t>De organisatie moet het herkennen en rapporteren van bedreigingen van binnenuit opnemen in de beveiligingsbewustmakingsopleiding.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>De organisatie moet ervoor zorgen dat unieke referenties worden gebruikt voor elke geverifieerde gebruiker, elk apparaat en elk proces dat interageert met de kritieke systemen van de organisatie; zij moet ervoor zorgen dat deze worden geverifieerd en dat unieke identificatiecodes worden vastgelegd bij het uitvoeren van systeeminteracties.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>PR.AC-7: Identiteiten worden aangetoond en verbonden aan referenties (“credentials”) en bevestigd in interacties.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>De organisatie moet een gedocumenteerde risicobeoordeling uitvoeren op de kritieke systeemtransacties van de organisatie en gebruikers, apparaten en andere middelen authentiseren (bv. single-factor, multifactor) in verhouding tot het risico van de transactie (bv. de veiligheids- en privacy risico’s van personen en andere organisatorische risico's). - kernmaatregel -</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Overweeg voor nieuwe systemen een op beveiliging gebaseerde ontwerp (“security-by-design”); voor bestaande systemen zou een afzonderlijke risicobeoordeling moeten worden gebruikt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Bewustmaking en opleiding (PR.AT)</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Het personeel en de partners van de organisatie krijgen voorlichting over cyberbeveiligingsbewustzijn en worden opgeleid om hun taken en verantwoordelijkheden op het gebied van cyberbeveiliging overeenkomstig de desbetreffende beleidsmaatregelen, procedures en overeenkomsten uit te voeren.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr"/>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>PR.AT-1: Alle gebruikers worden geïnformeerd en opgeleid.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>De werknemers moeten de nodige opleiding krijgen.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>• Tot de werknemers behoren alle gebruikers en beheerders van de ICT/OT-systemen; zij zouden onmiddellijk bij indiensttreding en daarna regelmatig moeten worden opgeleid over het informatiebeveiligingsbeleid van de onderneming en over wat er van hen wordt verwacht om de bedrijfsinformatie en -technologie te beschermen. 
-• De opleiding zou voortdurend moeten worden bijgewerkt en versterkt door bewustmakingscampagnes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>De organisatie moet het herkennen en rapporteren van bedreigingen van binnenuit opnemen in de beveiligingsbewustmakingsopleiding.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
         <is>
           <t>Overweeg het volgende: 
 • Communiceer en bespreek regelmatig om ervoor te zorgen dat iedereen zich bewust is van zijn verantwoordelijkheden. 
@@ -2147,181 +2107,176 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>De organisatie moet een evaluatiemethode toepassen om de doeltreffendheid van de bewustmakingsopleidingen te meten.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PR.AT-2:  Geprivilegieerde gebruikers begrijpen hun rollen en verantwoordelijkheden.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Geprivilegieerde gebruikers moeten gekwalificeerd zijn voordat rechten worden verleend, en deze gebruikers moeten kunnen aantonen dat zij hun taken, verantwoordelijkheden en bevoegdheden begrijpen.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>PR.AT-3: Belanghebbenden van derden (bijv. leveranciers, klanten, partners) begrijpen hun rol en verantwoordelijkheden.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>De organisatie moet beveiligingseisen vaststellen en handhaven voor bedrijfskritische derde partijen (“third-party providers”) en gebruikers.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>De handhaving zou moeten inhouden dat "derde belanghebbenden" (bv. leveranciers, klanten, partners) kunnen aantonen dat zij hun rol en verantwoordelijkheden begrijpen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Derde partijen moeten elke overplaatsing, beëindiging of overgang van personeel met fysieke of logische toegang tot bedrijfskritische systeemonderdelen van de organisatie melden.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Derde partijen zijn bijvoorbeeld dienstverleners, contractanten en andere organisaties die systeemontwikkeling, technologische diensten, uitbestede toepassingen of netwerk- en beveiligingsbeheer leveren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>De organisatie monitort leveranciers en gebruikers van bedrijfskritische diensten op naleving van de beveiligingsvoorschriften.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Auditresultaten van derden kunnen als auditbewijs worden gebruikt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>De organisatie auditeert bedrijfskritische externe dienstverleners op naleving van de beveiligingsvoorschriften.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Auditresultaten van derden kunnen als auditbewijs worden gebruikt.</t>
+        </is>
+      </c>
+    </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>De organisatie moet een evaluatiemethode toepassen om de doeltreffendheid van de bewustmakingsopleidingen te meten.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>PR.AT-4:  Hogere leidinggevenden begrijpen hun taken en verantwoordelijkheden.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PR.AT-2:  Geprivilegieerde gebruikers begrijpen hun rollen en verantwoordelijkheden.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>Hogere leidinggevenden moeten kunnen aantonen dat hun taken, verantwoordelijkheden en bevoegdheden begrijpen.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Richtsnoeren voor rolprofielen en de daarbij behorende titels, opdrachten, taken, vaardigheden, kennis en competenties zijn te vinden in de "European Cybersecurity Skills Framework Role Profiles" van ENISA. (https://www.enisa.europa.eu/publications/european-cybersecurity-skills-framework-role-profiles )</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Geprivilegieerde gebruikers moeten gekwalificeerd zijn voordat rechten worden verleend, en deze gebruikers moeten kunnen aantonen dat zij hun taken, verantwoordelijkheden en bevoegdheden begrijpen.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>PR.AT-5: Fysiek en cyberbeveiligingspersoneel begrijpt hun rollen en verantwoordelijkheden.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PR.AT-3: Belanghebbenden van derden (bijv. leveranciers, klanten, partners) begrijpen hun rol en verantwoordelijkheden.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>De organisatie moet ervoor zorgen dat het personeel dat verantwoordelijk is voor de fysieke bescherming en beveiliging van de kritieke systemen en faciliteiten van de organisatie via opleiding gekwalificeerd is, voordat privileges worden verleend, en dat het zijn verantwoordelijkheden begrijpt.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Gegevensbeveiliging (PR.DS)</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>De organisatie moet beveiligingseisen vaststellen en handhaven voor bedrijfskritische derde partijen (“third-party providers”) en gebruikers.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>De handhaving zou moeten inhouden dat "derde belanghebbenden" (bv. leveranciers, klanten, partners) kunnen aantonen dat zij hun rol en verantwoordelijkheden begrijpen.</t>
-        </is>
-      </c>
+          <t>Informatie en registraties (gegevens) worden beheerd in overeenstemming met de risicostrategie van de organisatie om de vertrouwelijkheid, integriteit en beschikbaarheid van informatie te beschermen.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Derde partijen moeten elke overplaatsing, beëindiging of overgang van personeel met fysieke of logische toegang tot bedrijfskritische systeemonderdelen van de organisatie melden.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Derde partijen zijn bijvoorbeeld dienstverleners, contractanten en andere organisaties die systeemontwikkeling, technologische diensten, uitbestede toepassingen of netwerk- en beveiligingsbeheer leveren.</t>
-        </is>
-      </c>
+          <t>PR.DS-1: Data in rust is beschermd.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>De organisatie monitort leveranciers en gebruikers van bedrijfskritische diensten op naleving van de beveiligingsvoorschriften.</t>
+          <t>De organisatie moet haar kritieke systeeminformatie die als kritisch/gevoelig is aangemerkt, beschermen wanneer deze in rust is.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
-        <is>
-          <t>Auditresultaten van derden kunnen als auditbewijs worden gebruikt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>De organisatie auditeert bedrijfskritische externe dienstverleners op naleving van de beveiligingsvoorschriften.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Auditresultaten van derden kunnen als auditbewijs worden gebruikt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr"/>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>PR.AT-4:  Hogere leidinggevenden begrijpen hun taken en verantwoordelijkheden.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Hogere leidinggevenden moeten kunnen aantonen dat hun taken, verantwoordelijkheden en bevoegdheden begrijpen.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Richtsnoeren voor rolprofielen en de daarbij behorende titels, opdrachten, taken, vaardigheden, kennis en competenties zijn te vinden in de "European Cybersecurity Skills Framework Role Profiles" van ENISA. (https://www.enisa.europa.eu/publications/european-cybersecurity-skills-framework-role-profiles )</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>PR.AT-5: Fysiek en cyberbeveiligingspersoneel begrijpt hun rollen en verantwoordelijkheden.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr"/>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>De organisatie moet ervoor zorgen dat het personeel dat verantwoordelijk is voor de fysieke bescherming en beveiliging van de kritieke systemen en faciliteiten van de organisatie via opleiding gekwalificeerd is, voordat privileges worden verleend, en dat het zijn verantwoordelijkheden begrijpt.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Gegevensbeveiliging (PR.DS)</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Informatie en registraties (gegevens) worden beheerd in overeenstemming met de risicostrategie van de organisatie om de vertrouwelijkheid, integriteit en beschikbaarheid van informatie te beschermen.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>PR.DS-1: Data in rust is beschermd.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>De organisatie moet haar kritieke systeeminformatie die als kritisch/gevoelig is aangemerkt, beschermen wanneer deze in rust is.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
         <is>
           <t>De onderstaande maatregelen kunnen worden overwogen: 
 • Overweeg het gebruik van encryptietechnieken voor gegevensopslag, gegevensoverdracht of gegevenstransport (bijv. laptop, USB). 
@@ -2332,26 +2287,138 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>PR.DS-2:  Data-in-transitie is beschermd.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>De organisatie moet haar kritieke systeeminformatie die als kritisch/gevoelig is aangemerkt, beschermen wanneer deze in transit is.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>De onderstaande maatregelen kunnen worden overwogen: 
+• Wanneer de organisatie vaak gevoelige documenten of e-mails verzendt, kan worden overwogen om die documenten en/of e-mails te versleutelen met geschikte, ondersteunde en toegestane softwaretools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>PR.DS-3:  Activa worden formeel beheerd gedurende de verhuizing, overdracht en verwijdering.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Activa en media moeten veilig worden verwijderd.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>• Zorg er bij het verwijderen van materiële activa zoals bedrijfscomputers/laptops, servers, harde schijf(sen) en andere opslagmedia (USB-stations, papier...) voor dat alle gevoelige bedrijfs- of persoonsgegevens veilig worden gewist (incl. elektronisch "gewist") voordat ze worden verwijderd en vervolgens fysiek worden vernietigd (of opnieuw in gebruik worden genomen). Dit wordt ook wel "opschonen" genoemd en houdt dus verband met de eis en de richtsnoeren in PR.IP-6. 
+• Overweeg een toepassing voor wissen op afstand te installeren op laptops, tablets, mobiele telefoons en andere mobiele apparaten van het bedrijf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>De organisatie moet de aansprakelijkheid voor alle bedrijfskritische bedrijfsmiddelen gedurende de gehele levenscyclus van het systeem afdwingen, met inbegrip van verwijdering, overdracht en vervreemding.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Aansprakelijkheid kan het volgende omvatten: 
+• De toestemming om bedrijfskritische activa de faciliteit te laten betreden of te verlaten. 
+• Toezicht houden op en bijhouden van documentatie over de verplaatsingen van bedrijfskritische activa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat verwijderingsacties worden goedgekeurd, gevolgd, gedocumenteerd en geverifieerd.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Verwijderingsacties omvatten sanering van de media (zie PR.IP-6).</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>De organisatie zorgt ervoor dat de nodige maatregelen worden genomen om verlies, misbruik, beschadiging of diefstal van activa tegen te gaan.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Dit kan gebeuren door beleid, processen &amp; procedures (rapportage), technische &amp; organisatorische middelen (encryptie, toegangscontrole (AC), Mobile Device Management (MDM), monitoring, veilig wissen, bewustmaking, ondertekende gebruikersovereenkomst, richtlijnen &amp; handleidingen, back-ups, bijwerken van inventaris ...).</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PR.DS-4:  Voldoende capaciteit om de beschikbaarheid te waarborgen.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>De capaciteitsplanning moet ervoor zorgen dat er voldoende middelen zijn voor de kritische systeeminformatieverwerking, netwerken, telecommunicatie en gegevensopslag van de organisatie.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PR.DS-2:  Data-in-transitie is beschermd.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>De kritische systemen van de organisatie moeten worden beschermd tegen denial-of-service- aanvallen of het effect van dergelijke aanvallen moet ten minste worden beperkt.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>De organisatie moet haar kritieke systeeminformatie die als kritisch/gevoelig is aangemerkt, beschermen wanneer deze in transit is.</t>
+          <t>Auditgegevens met betrekking tot de kritieke systemen van de organisatie moeten naar een alternatief systeem worden overgebracht.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>De onderstaande maatregelen kunnen worden overwogen: 
-• Wanneer de organisatie vaak gevoelige documenten of e-mails verzendt, kan worden overwogen om die documenten en/of e-mails te versleutelen met geschikte, ondersteunde en toegestane softwaretools.</t>
+          <t>Wees ervan bewust dat logdiensten een knelpunt kunnen worden en de goede werking van de bronsystemen kunnen belemmeren.</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2426,7 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PR.DS-3:  Activa worden formeel beheerd gedurende de verhuizing, overdracht en verwijdering.</t>
+          <t>PR.DS-5:  Beveiligingen tegen datalekken worden geïmplementeerd.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -2368,13 +2435,13 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Activa en media moeten veilig worden verwijderd.</t>
+          <t>De organisatie neemt passende maatregelen die leiden tot de bewaking van haar kritische systemen aan de buitengrenzen en kritische interne punten wanneer ongeoorloofde toegang en activiteiten, met inbegrip van het lekken van gegevens, worden ontdekt. - kernmaatregel -</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>• Zorg er bij het verwijderen van materiële activa zoals bedrijfscomputers/laptops, servers, harde schijf(sen) en andere opslagmedia (USB-stations, papier...) voor dat alle gevoelige bedrijfs- of persoonsgegevens veilig worden gewist (incl. elektronisch "gewist") voordat ze worden verwijderd en vervolgens fysiek worden vernietigd (of opnieuw in gebruik worden genomen). Dit wordt ook wel "opschonen" genoemd en houdt dus verband met de eis en de richtsnoeren in PR.IP-6. 
-• Overweeg een toepassing voor wissen op afstand te installeren op laptops, tablets, mobiele telefoons en andere mobiele apparaten van het bedrijf.</t>
+          <t>• Overweeg specifieke beschermingsmaatregelen (beperkte toegangsrechten, dagelijkse back-ups, gegevensversleuteling, installatie van firewalls, enz.). 
+• Overweeg een frequente audit van de configuratie van de centrale directory (Active Directory in een Windows-omgeving), met specifieke aandacht voor de toegang tot gegevens van belangrijke personen in het bedrijf.</t>
         </is>
       </c>
     </row>
@@ -2382,27 +2449,21 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>De organisatie moet de aansprakelijkheid voor alle bedrijfskritische bedrijfsmiddelen gedurende de gehele levenscyclus van het systeem afdwingen, met inbegrip van verwijdering, overdracht en vervreemding.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Aansprakelijkheid kan het volgende omvatten: 
-• De toestemming om bedrijfskritische activa de faciliteit te laten betreden of te verlaten. 
-• Toezicht houden op en bijhouden van documentatie over de verplaatsingen van bedrijfskritische activa.</t>
-        </is>
-      </c>
+          <t>PR.DS-6: Integriteitscontrolemechanismen worden gebruikt om de integriteit van software, firmware en informatie te controleren.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>De organisatie moet ervoor zorgen dat verwijderingsacties worden goedgekeurd, gevolgd, gedocumenteerd en geverifieerd.</t>
+          <t>De organisatie moet software-, firmware- en informatie-integriteitscontroles uitvoeren om ongeoorloofde wijzigingen in haar kritieke systeemcomponenten tijdens opslag, vervoer, opstarten en wanneer dit nodig is op te sporen.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Verwijderingsacties omvatten sanering van de media (zie PR.IP-6).</t>
+          <t>Met de modernste mechanismen voor integriteitscontrole (bv. pariteitscontroles, cyclische redundantiecontroles, cryptografische hashes) en de bijbehorende instrumenten kan de integriteit van informatiesystemen en gehoste toepassingen automatisch worden bewaakt.</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2471,12 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>De organisatie zorgt ervoor dat de nodige maatregelen worden genomen om verlies, misbruik, beschadiging of diefstal van activa tegen te gaan.</t>
+          <t>De organisatie moet waar mogelijk geautomatiseerde instrumenten toepassen om een melding te geven wanneer tijdens de integriteitscontrole discrepanties worden ontdekt.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Dit kan gebeuren door beleid, processen &amp; procedures (rapportage), technische &amp; organisatorische middelen (encryptie, toegangscontrole (AC), Mobile Device Management (MDM), monitoring, veilig wissen, bewustmaking, ondertekende gebruikersovereenkomst, richtlijnen &amp; handleidingen, back-ups, bijwerken van inventaris ...).</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -2423,34 +2484,35 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PR.DS-4:  Voldoende capaciteit om de beschikbaarheid te waarborgen.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+          <t>De organisatie moet automatische reacties met vooraf gedefinieerde veiligheidswaarborgen implementeren wanneer integriteitsschendingen worden ontdekt.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>De capaciteitsplanning moet ervoor zorgen dat er voldoende middelen zijn voor de kritische systeeminformatieverwerking, netwerken, telecommunicatie en gegevensopslag van de organisatie.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>PR.DS-7: De ontwikkelings- en testomgeving(en) zijn gescheiden van de productieomgeving.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>De kritische systemen van de organisatie moeten worden beschermd tegen denial-of-service- aanvallen of het effect van dergelijke aanvallen moet ten minste worden beperkt.</t>
+          <t>De ontwikkelings- en testomgeving(en) moet(en) worden geïsoleerd van de productieomgeving.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>• Elke verandering die men wil aanbrengen in de ICT/OT-omgeving moet eerst worden getest in een omgeving die verschilt en gescheiden is van de productieomgeving (operationele omgeving) voordat die verandering daadwerkelijk wordt doorgevoerd. Op die manier kan het effect van die veranderingen worden geanalyseerd en kunnen aanpassingen worden gedaan zonder de operationele activiteiten te verstoren. 
+• Overweeg het toevoegen en testen van cyberbeveiligingsfuncties al tijdens de ontwikkeling (“secure development lifecycle” principes).</t>
         </is>
       </c>
     </row>
@@ -2458,43 +2520,46 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Auditgegevens met betrekking tot de kritieke systemen van de organisatie moeten naar een alternatief systeem worden overgebracht.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Wees ervan bewust dat logdiensten een knelpunt kunnen worden en de goede werking van de bronsystemen kunnen belemmeren.</t>
-        </is>
-      </c>
+          <t>PR.DS-8: Integriteitscontrolemechanismen worden gebruikt om de integriteit van de hardware te verifiëren.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PR.DS-5:  Beveiligingen tegen datalekken worden geïmplementeerd.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
+          <t>De organisatie moet hardware-integriteitscontroles uitvoeren om ongeoorloofde sabotage van de hardware van haar kritieke systemen op te sporen.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Met de modernste (“state-of-the-practice”) mechanismen voor integriteitscontrole (bv. pariteitscontroles, cyclische redundantiecontroles, cryptografische hashes) en de bijbehorende instrumenten kan de integriteit van informatiesystemen en gehoste toepassingen automatisch worden bewaakt.</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>De organisatie neemt passende maatregelen die leiden tot de bewaking van haar kritische systemen aan de buitengrenzen en kritische interne punten wanneer ongeoorloofde toegang en activiteiten, met inbegrip van het lekken van gegevens, worden ontdekt. - kernmaatregel -</t>
+          <t>De organisatie moet de detectie van ongeoorloofde sabotage van de hardware van haar kritieke systemen opnemen in de incidentenbestrijdingscapaciteit van de organisatie.</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>• Overweeg specifieke beschermingsmaatregelen (beperkte toegangsrechten, dagelijkse back-ups, gegevensversleuteling, installatie van firewalls, enz.). 
-• Overweeg een frequente audit van de configuratie van de centrale directory (Active Directory in een Windows-omgeving), met specifieke aandacht voor de toegang tot gegevens van belangrijke personen in het bedrijf.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Informatiebeschermingsprocessen en - procedures (PR.IP)</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PR.DS-6: Integriteitscontrolemechanismen worden gebruikt om de integriteit van software, firmware en informatie te controleren.</t>
+          <t>Er wordt een beveiligingsbeleid (dat betrekking heeft op het doel, het toepassingsgebied, de rollen, de verantwoordelijkheden, de inzet van het management en de coördinatie tussen organisatorische eenheden), processen en procedures gehandhaafd en gebruikt om de bescherming van informatiesystemen en -middelen te beheren.</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -2503,25 +2568,22 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>De organisatie moet software-, firmware- en informatie-integriteitscontroles uitvoeren om ongeoorloofde wijzigingen in haar kritieke systeemcomponenten tijdens opslag, vervoer, opstarten en wanneer dit nodig is op te sporen.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Met de modernste mechanismen voor integriteitscontrole (bv. pariteitscontroles, cyclische redundantiecontroles, cryptografische hashes) en de bijbehorende instrumenten kan de integriteit van informatiesystemen en gehoste toepassingen automatisch worden bewaakt.</t>
-        </is>
-      </c>
+          <t>PR.IP-1: Er wordt een basisconfiguratie van informatietechnologie/industriële controlesystemen gecreëerd en onderhouden, waarin de beveiligingsbeginselen zijn verwerkt .</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>De organisatie moet waar mogelijk geautomatiseerde instrumenten toepassen om een melding te geven wanneer tijdens de integriteitscontrole discrepanties worden ontdekt.</t>
+          <t>De organisatie moet een basisconfiguratie voor haar bedrijfskritische systemen ontwikkelen, documenteren en bijhouden. - kernmaatregel –</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>• Baseline-configuraties omvatten bijvoorbeeld informatie over de bedrijfskritische systemen van de organisatie, de huidige versienummers en patchinformatie van besturingssystemen en toepassingen, configuratie-instellingen/parameters, netwerktopologie en de logische plaatsing van die componenten binnen de systeemarchitectuur. 
+• De netwerktopologie moet de zenuwpunten van de IT/OT-omgeving omvatten (externe verbindingen, servers die gegevens en/of gevoelige functies hosten, beveiliging van DNS-diensten, enz.).</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2591,13 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>De organisatie moet automatische reacties met vooraf gedefinieerde veiligheidswaarborgen implementeren wanneer integriteitsschendingen worden ontdekt.</t>
+          <t>De organisatie moet haar bedrijfskritische systemen zodanig configureren dat zij alleen essentiële mogelijkheden bieden. Daarom moet de basisconfiguratie worden herzien en moeten onnodige mogelijkheden worden uitgeschakeld.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>• De configuratie van een systeem om alleen de door de organisatie gedefinieerde essentiële functies te leveren, staat bekend als het "concept van de minste functionaliteit (“concept of least functionality”)". 
+• Mogelijkheden omvatten functies, poorten, protocollen, software en/of diensten.</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2605,7 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PR.DS-7: De ontwikkelings- en testomgeving(en) zijn gescheiden van de productieomgeving.</t>
+          <t>PR.IP-2: Een levenscyclus voor systeemontwikkeling om systemen te beheren wordt geïmplementeerd.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -2551,13 +2614,14 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>De ontwikkelings- en testomgeving(en) moet(en) worden geïsoleerd van de productieomgeving.</t>
+          <t>De levenscyclus van de ontwikkeling (“System Development Life Cycle“) van systemen en toepassingen moet beveiligingsoverwegingen omvatten.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>• Elke verandering die men wil aanbrengen in de ICT/OT-omgeving moet eerst worden getest in een omgeving die verschilt en gescheiden is van de productieomgeving (operationele omgeving) voordat die verandering daadwerkelijk wordt doorgevoerd. Op die manier kan het effect van die veranderingen worden geanalyseerd en kunnen aanpassingen worden gedaan zonder de operationele activiteiten te verstoren. 
-• Overweeg het toevoegen en testen van cyberbeveiligingsfuncties al tijdens de ontwikkeling (“secure development lifecycle” principes).</t>
+          <t>• De levenscyclus voor systeem- en applicatieontwikkeling zou het aankoopproces van de bedrijfskritische systemen van de organisatie en de onderdelen daarvan moeten omvatten. 
+• Er zou moeten worden overwogen om (webapplicatie) ontwikkelaars bewust te maken van kwetsbaarheden, preventietraining te geven, en geavanceerde training in “social engineering” voor belangrijke functies. 
+• Bij het hosten van op internet gerichte toepassingen zou de implementatie van een Web Application Firewall (WAF) moeten worden overwogen.</t>
         </is>
       </c>
     </row>
@@ -2565,124 +2629,10 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PR.DS-8: Integriteitscontrolemechanismen worden gebruikt om de integriteit van de hardware te verifiëren.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>De organisatie moet hardware-integriteitscontroles uitvoeren om ongeoorloofde sabotage van de hardware van haar kritieke systemen op te sporen.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Met de modernste (“state-of-the-practice”) mechanismen voor integriteitscontrole (bv. pariteitscontroles, cyclische redundantiecontroles, cryptografische hashes) en de bijbehorende instrumenten kan de integriteit van informatiesystemen en gehoste toepassingen automatisch worden bewaakt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>De organisatie moet de detectie van ongeoorloofde sabotage van de hardware van haar kritieke systemen opnemen in de incidentenbestrijdingscapaciteit van de organisatie.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Informatiebeschermingsprocessen en - procedures (PR.IP)</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Er wordt een beveiligingsbeleid (dat betrekking heeft op het doel, het toepassingsgebied, de rollen, de verantwoordelijkheden, de inzet van het management en de coördinatie tussen organisatorische eenheden), processen en procedures gehandhaafd en gebruikt om de bescherming van informatiesystemen en -middelen te beheren.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>PR.IP-1: Er wordt een basisconfiguratie van informatietechnologie/industriële controlesystemen gecreëerd en onderhouden, waarin de beveiligingsbeginselen zijn verwerkt .</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr"/>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>De organisatie moet een basisconfiguratie voor haar bedrijfskritische systemen ontwikkelen, documenteren en bijhouden. - kernmaatregel –</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>• Baseline-configuraties omvatten bijvoorbeeld informatie over de bedrijfskritische systemen van de organisatie, de huidige versienummers en patchinformatie van besturingssystemen en toepassingen, configuratie-instellingen/parameters, netwerktopologie en de logische plaatsing van die componenten binnen de systeemarchitectuur. 
-• De netwerktopologie moet de zenuwpunten van de IT/OT-omgeving omvatten (externe verbindingen, servers die gegevens en/of gevoelige functies hosten, beveiliging van DNS-diensten, enz.).</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>De organisatie moet haar bedrijfskritische systemen zodanig configureren dat zij alleen essentiële mogelijkheden bieden. Daarom moet de basisconfiguratie worden herzien en moeten onnodige mogelijkheden worden uitgeschakeld.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>• De configuratie van een systeem om alleen de door de organisatie gedefinieerde essentiële functies te leveren, staat bekend als het "concept van de minste functionaliteit (“concept of least functionality”)". 
-• Mogelijkheden omvatten functies, poorten, protocollen, software en/of diensten.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>PR.IP-2: Een levenscyclus voor systeemontwikkeling om systemen te beheren wordt geïmplementeerd.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>De levenscyclus van de ontwikkeling (“System Development Life Cycle“) van systemen en toepassingen moet beveiligingsoverwegingen omvatten.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>• De levenscyclus voor systeem- en applicatieontwikkeling zou het aankoopproces van de bedrijfskritische systemen van de organisatie en de onderdelen daarvan moeten omvatten. 
-• Er zou moeten worden overwogen om (webapplicatie) ontwikkelaars bewust te maken van kwetsbaarheden, preventietraining te geven, en geavanceerde training in “social engineering” voor belangrijke functies. 
-• Bij het hosten van op internet gerichte toepassingen zou de implementatie van een Web Application Firewall (WAF) moeten worden overwogen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
           <t>Het ontwikkelingsproces voor kritieke systemen en systeemcomponenten moet de volledige ontwerpcyclus omvatten en voorziet in een beschrijving van de functionele eigenschappen van veiligheidscontroles, en in ontwerp- en uitvoeringsinformatie voor veiligheidsrelevante systeeminterfaces.</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>De ontwikkelingscyclus omvat ondermeer: 
 • Alle ontwikkelingsfasen: specificatie, ontwerp, ontwikkeling, uitvoering. 
@@ -2692,58 +2642,58 @@
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
         <is>
           <t>PR.IP-3: Er zijn processen voor het beheer van configuratiewijzigingen aanwezig.</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr">
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
         <is>
           <t>Wijzigingen moeten worden getest en gevalideerd vóórdat zij in operationele systemen worden doorgevoerd.</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-      <c r="B188" t="inlineStr">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
         <is>
           <t>Voor geplande wijzigingen in de kritieke systemen van de organisatie moet een veiligheidsimpactanalyse worden uitgevoerd in een afzonderlijke testomgeving alvorens deze in een operationele omgeving worden geïmplementeerd.</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr"/>
-      <c r="B189" t="inlineStr">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
         <is>
           <t>PR.IP-4: Er worden back-ups van informatie gemaakt, onderhouden en getest.</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr"/>
-      <c r="B190" t="inlineStr">
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
         <is>
           <t>Back-ups voor bedrijfskritische gegevens van de organisatie moeten worden uitgevoerd en opgeslagen op een ander systeem dan het apparaat waarop de oorspronkelijke gegevens zich bevinden. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>• De bedrijfskritische systeemgegevens van de organisatie omvatten bijvoorbeeld software, configuraties en instellingen, documentatie, systeemconfiguratiegegevens waaronder back-ups van computerconfiguratie, back-ups van applicatieconfiguratie, enz. 
 • Overweeg een regelmatige back-up en zet deze periodiek offline. 
@@ -2752,76 +2702,76 @@
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr"/>
-      <c r="B191" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
         <is>
           <t>De betrouwbaarheid en integriteit van de back-ups moet regelmatig worden geverifieerd en getest.</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Dit houdt in dat de procedures voor het herstellen van de back-up regelmatig moeten worden getest.</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr"/>
-      <c r="B192" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
         <is>
           <t>Verificatie van back-ups moet worden gecoördineerd met de functies in de organisatie die verantwoordelijk zijn voor gerelateerde plannen.</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>• Gerelateerde plannen zijn bijvoorbeeld bedrijfscontinuïteitsplannen, rampherstelplannen, bedrijfscontinuïteitsplannen, crisiscommunicatieplannen, plannen voor kritieke infrastructuur en reactieplannen voor cyberincidenten. 
 • Tijdens het testen van het rampenplan moeten de back-upgegevens worden hersteld.</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
         <is>
           <t>Er moet een afzonderlijke alternatieve opslaglocatie voor systeemback-ups worden uitgebaat waar dezelfde veiligheidswaarborgen worden gebruikt als de primaire opslaglocatie.</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Een offline back-up van uw gegevens wordt idealiter opgeslagen op een andere fysieke locatie dan de oorspronkelijke gegevensbron en waar mogelijk off site voor extra bescherming en beveiliging.</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr"/>
-      <c r="B194" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
         <is>
           <t>De back-up van kritieke systemen wordt gescheiden van de back-up van kritieke informatie.</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>De scheiding tussen de back-up van kritieke systemen en de back-up van kritieke informatie zal normaal leiden tot een kortere hersteltijd.</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr"/>
-      <c r="B195" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
         <is>
           <t>PR.IP-5: Beleid en voorschriften met betrekking tot de fysieke bedrijfsomgeving voor bedrijfsmiddelen van de organisatie worden nageleefd .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr">
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
         <is>
           <t>De organisatie moet beleid en procedures vaststellen, uitvoeren en handhaven met betrekking tot nood- en veiligheidssystemen, brandbeveiligingssystemen en omgevingscontroles voor haar kritische systemen.</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>De onderstaande maatregelen kunnen worden overwogen: 
 • Beveiliging van onbeheerde computerapparatuur met hangsloten of een locker- en sleutelsysteem. 
@@ -2829,36 +2779,36 @@
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr"/>
-      <c r="B197" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
         <is>
           <t>De organisatie moet branddetectieapparatuur implementeren die in geval van brand automatisch wordt geactiveerd en sleutelpersoneel verwittigt.</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr"/>
-      <c r="B198" t="inlineStr">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
         <is>
           <t>PR.IP-6: Gegevens worden vernietigd overeenkomstig beleid.</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr"/>
-      <c r="B199" t="inlineStr">
+      <c r="C188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
         <is>
           <t>De organisatie moet ervoor zorgen dat de gegevens van haar kritieke systemen overeenkomstig het beleid worden vernietigd.</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>• Verwijderingsacties omvatten sanering van de media (zie PR.DS-3). 
 • Er zijn twee hoofdtypen media in gebruik: 
@@ -2867,135 +2817,135 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>De vernietigingsprocessen moeten worden gedocumenteerd en getest.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>• Vernietigingsprocessen omvatten procedures en apparatuur. 
+• Overweeg niet-destructieve reinigingstechnieken toe te passen op draagbare opslagapparatuur. 
+• Overweeg vernietigingsprocedures proportioneel tot de vertrouwelijkheidseisen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>PR.IP-7: De beschermingsprocessen worden verbeterd.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>De organisatie moet verbeteringen die voortvloeien uit de monitoring, metingen, beoordelingen en geleerde lessen verwerken in de actualisering van het beschermingsproces (continue verbetering).</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>De organisatie moet onafhankelijke teams voorzien om de beschermingsprocedure(s) te beoordelen.</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>• Onafhankelijke teams kunnen bestaan uit intern of extern onpartijdig personeel. 
+• Onpartijdigheid houdt in dat de beoordelaars vrij zijn van elke vermeende of werkelijke belangenverstrengeling met betrekking tot de ontwikkeling, de exploitatie of het beheer van het te beoordelen kritieke systeem van de organisatie of met betrekking tot de bepaling van de doeltreffendheid van de veiligheidscontrole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat het beveiligingsplan voor haar kritieke systemen de toetsing, het testen en de voortdurende verbetering van de beveiligingsprocessen faciliteert.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>PR.IP-8: De doeltreffendheid van beschermingstechnologieën wordt gedeeld.</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>De organisatie moet met aangeduide partners samenwerken en informatie delen over haar kritieke systeem gerelateerde beveiligingsincidenten en risicobeperkende (mitigatie) maatregelen.</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>De doeltreffendheid van de toegepaste beschermingstechnologieën moet worden gecommuniceerd aan de toepasselijke partijen.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>De organisatie moet, waar mogelijk, geautomatiseerde mechanismen toepassen om te helpen bij informatiedeling.</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>PR.IP-9: Responsplannen (Incident Response en Business Continuity) en herstelplannen (Incident Recovery en Disaster Recovery) zijn aanwezig en worden beheerd .</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+    </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
-          <t>De vernietigingsprocessen moeten worden gedocumenteerd en getest.</t>
+          <t>Incidentresponsplannen (Incident Response en Business Continuity) en herstelplannen (Incident Recovery en Disaster Recovery) moeten worden opgesteld, bijgehouden, goedgekeurd en getest om de doeltreffendheid ervan en de gereedheid voor de uitvoering te bepalen.</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
-        <is>
-          <t>• Vernietigingsprocessen omvatten procedures en apparatuur. 
-• Overweeg niet-destructieve reinigingstechnieken toe te passen op draagbare opslagapparatuur. 
-• Overweeg vernietigingsprocedures proportioneel tot de vertrouwelijkheidseisen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr"/>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>PR.IP-7: De beschermingsprocessen worden verbeterd.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr"/>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>De organisatie moet verbeteringen die voortvloeien uit de monitoring, metingen, beoordelingen en geleerde lessen verwerken in de actualisering van het beschermingsproces (continue verbetering).</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr"/>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>De organisatie moet onafhankelijke teams voorzien om de beschermingsprocedure(s) te beoordelen.</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>• Onafhankelijke teams kunnen bestaan uit intern of extern onpartijdig personeel. 
-• Onpartijdigheid houdt in dat de beoordelaars vrij zijn van elke vermeende of werkelijke belangenverstrengeling met betrekking tot de ontwikkeling, de exploitatie of het beheer van het te beoordelen kritieke systeem van de organisatie of met betrekking tot de bepaling van de doeltreffendheid van de veiligheidscontrole.</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>De organisatie moet ervoor zorgen dat het beveiligingsplan voor haar kritieke systemen de toetsing, het testen en de voortdurende verbetering van de beveiligingsprocessen faciliteert.</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>PR.IP-8: De doeltreffendheid van beschermingstechnologieën wordt gedeeld.</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr"/>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>De organisatie moet met aangeduide partners samenwerken en informatie delen over haar kritieke systeem gerelateerde beveiligingsincidenten en risicobeperkende (mitigatie) maatregelen.</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr"/>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>De doeltreffendheid van de toegepaste beschermingstechnologieën moet worden gecommuniceerd aan de toepasselijke partijen.</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr"/>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>De organisatie moet, waar mogelijk, geautomatiseerde mechanismen toepassen om te helpen bij informatiedeling.</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr"/>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>PR.IP-9: Responsplannen (Incident Response en Business Continuity) en herstelplannen (Incident Recovery en Disaster Recovery) zijn aanwezig en worden beheerd .</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr"/>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Incidentresponsplannen (Incident Response en Business Continuity) en herstelplannen (Incident Recovery en Disaster Recovery) moeten worden opgesteld, bijgehouden, goedgekeurd en getest om de doeltreffendheid ervan en de gereedheid voor de uitvoering te bepalen.</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
         <is>
           <t>• Het incident response plan is de documentatie van een vooraf bepaalde reeks instructies of procedures om een kwaadaardige cyberaanval op te sporen, erop te reageren en de gevolgen ervan te beperken. 
 • De plannen zouden hersteldoelstellingen, herstelprioriteiten, metingen (statistieken), rollen m.b.t. bedrijfscontinuïteit, personeelstaken en contactinformatie moeten bevatten. 
@@ -3004,113 +2954,108 @@
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr"/>
-      <c r="B211" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
         <is>
           <t>De organisatie moet de ontwikkeling en het testen van incidentbestrijdingsplannen en herstelplannen coördineren met de belanghebbenden die verantwoordelijk zijn voor de desbetreffende plannen.</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Verwante plannen zijn bijvoorbeeld bedrijfscontinuïteitsplannen, rampherstelplannen, bedrijfscontinuïteitsplannen, crisiscommunicatieplannen, plannen voor kritieke infrastructuur, reactieplannen voor cyberincidenten en noodplannen voor omwonenden.</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr"/>
-      <c r="B212" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
         <is>
           <t>PR.IP-11:  Cyberbeveiliging is opgenomen in de personeelsbeheer (afbouwen, personeelsscreening...).</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr"/>
-      <c r="B213" t="inlineStr">
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
         <is>
           <t>Het personeel dat toegang heeft tot de meest kritieke informatie of technologie van de organisatie moet worden geverifieerd.</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>• De toegang tot kritieke informatie of technologie moet in overweging worden genomen bij de aanwerving, tijdens het dienstverband en bij de beëindiging van het dienstverband. 
 • Bij achtergrondcontroles moet rekening worden gehouden met de toepasselijke wet- en regelgeving en ethiek in verhouding tot de bedrijfsvereisten, de classificatie van de te raadplegen informatie en de gepercipieerde risico's.</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr"/>
-      <c r="B214" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
         <is>
           <t>Er moet een proces voor informatie- en cyberbeveiliging worden ontwikkeld en gehandhaafd dat van toepassing is bij de aanwerving, tijdens het dienstverband en bij de beëindiging van het dienstverband.</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Het proces voor informatie- en cyberbeveiliging van het personeel zou de toegang tot kritieke informatie of technologie moeten omvatten; controles van de achtergrond; gedragscode; rollen, bevoegdheden en verantwoordelijkheden...</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr"/>
-      <c r="B215" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
         <is>
           <t>PR.IP-12:  Een plan voor het beheer van kwetsbaarheden wordt ontwikkeld en uitgevoerd .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr"/>
-      <c r="B216" t="inlineStr">
+      <c r="C205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
         <is>
           <t>De organisatie moet een gedocumenteerd proces vaststellen en bijhouden dat een voortdurende evaluatie mogelijk maakt van de kwetsbaarheden en de strategieën om deze te verminderen.</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>• Er zou moeten worden nagegaan welke bronnen kwetsbaarheden in de geïdentificeerde componenten kunnen melden en updates kunnen verspreiden (websites van software-uitgevers, website van het CERT, website van het ENISA). 
 • De organisatie moet nagaan waar haar kritieke systemen kwetsbaar zijn voor tegenstanders.</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Onderhoud (PR.MA)</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr"/>
-      <c r="B218" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Onderhoud en reparatie van industriële besturings- en informatiesystemen worden uitgevoerd in overeenstemming met beleid en procedures.</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr">
+      <c r="C207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
         <is>
           <t>PR.MA-1:  Onderhoud en reparatie van bedrijfsmiddelen van de organisatie worden uitgevoerd en geregistreerd, met goedgekeurde en gecontroleerde gereedschappen.</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr">
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
         <is>
           <t>Patches en beveiligingsupdates voor besturingssystemen en kritieke systeemcomponenten moeten worden geïnstalleerd. - kernmaatregel –</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Het volgende kan in overweging worden genomen: 
 • Beperk u tot het installeren van alleen die toepassingen (besturingssystemen, firmware of plug-ins) die u nodig hebt om uw bedrijf te runnen en werk ze regelmatig bij. 
@@ -3120,14 +3065,14 @@
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
         <is>
           <t>De organisatie moet preventief onderhoud en reparaties aan haar kritische systeemcomponenten plannen, uitvoeren en documenteren volgens goedgekeurde processen en instrumenten.</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>De volgende maatregelen kunnen worden overwogen: 
 • Voer tijdig beveiligingsupdates uit voor alle software. 
@@ -3136,16 +3081,145 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>De organisatie moet voorkomen dat onderhoudsapparatuur die kritieke systeeminformatie van de organisatie bevat, door onbevoegden wordt verwijderd. - kernmaatregel -</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Deze controle is voornamelijk gericht op OT/ICS-omgevingen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>De organisatie moet voorafgaandelijke goedkeuring, controle en toezicht op onderhoudsinstrumenten voor gebruik op haar kritieke systemen afdwingen.</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Onderhoudsinstrumenten kunnen hardware/software diagnostische testapparatuur, hardware/software packet sniffers en laptops omvatten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Beschermingstechnologie (PR.PT)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Onderhoudsinstrumenten en draagbare opslagapparaten moeten worden geïnspecteerd wanneer zij de faciliteit worden binnengebracht en moeten worden beschermd door anti- malwareoplossingen, zodat zij worden gescand op kwaadaardige code voordat zij op de systemen van de organisatie worden gebruikt. - kernmaatregel -</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>De organisatie moet na onderhoud of reparatie/patching van hardware en software de beveiligingscontroles nazien en de nodige maatregelen nemen. - kernmaatregel -</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>PR.MA-2:  Onderhoud op afstand van bedrijfsmiddelen van de organisatie moet worden goedgekeurd, geregistreerd en uitgevoerd op een wijze die ongeoorloofde toegang voorkomt.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Onderhoud op afstand mag alleen plaatsvinden na voorafgaande goedkeuring, toezicht om ongeoorloofde toegang te voorkomen, en goedkeuring van het resultaat van de onderhoudsactiviteiten zoals beschreven in goedgekeurde processen of procedures.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>De organisatie moet eisen dat diagnostische diensten met betrekking tot onderhoud op afstand worden uitgevoerd vanaf een systeem met een beveiliging die vergelijkbaar is met de beveiliging die op het gelijkwaardige kritieke systeem van de organisatie is geïmplementeerd.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat sterke authenticatie, registratie en sessiebeëindiging voor onderhoud op afstand worden toegepast.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Technische beveiligingsoplossingen worden beheerd om de beveiliging en veerkracht van systemen en activa te waarborgen, in overeenstemming met de desbetreffende beleidslijnen, procedures en overeenkomsten.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>PR.PT-1:  Registraties van audits/logs worden vastgesteld, gedocumenteerd, uitgevoerd en herzien overeenkomstig beleid.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+    </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
-          <t>De organisatie moet voorkomen dat onderhoudsapparatuur die kritieke systeeminformatie van de organisatie bevat, door onbevoegden wordt verwijderd. - kernmaatregel -</t>
+          <t>Logs worden bijgehouden, gedocumenteerd en geëvalueerd. - kernmaatregel -</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Deze controle is voornamelijk gericht op OT/ICS-omgevingen.</t>
+          <t>• Zorg ervoor dat de activiteitenregistratiefunctie (“activity logging functionality “) van beschermings- /detectiehardware of -software (bv. firewalls, antivirus) is ingeschakeld. 
+• Logs moeten worden geback-upt en opgeslagen voor een vooraf bepaalde periode (zie ook PR.DS-4). 
+• De logs moeten worden nagezien op ongebruikelijke of ongewenste trends, zoals een groot gebruik van sociale media websites of een ongebruikelijk aantal virussen dat consequent op een bepaalde computer wordt aangetroffen. Deze trends kunnen wijzen op een ernstiger probleem of op de noodzaak van strengere bescherming op een bepaald gebied.</t>
         </is>
       </c>
     </row>
@@ -3153,29 +3227,33 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>De organisatie moet voorafgaandelijke goedkeuring, controle en toezicht op onderhoudsinstrumenten voor gebruik op haar kritieke systemen afdwingen.</t>
+          <t>De organisatie moet ervoor zorgen dat de logs een referentie tijdsbron of interne klok tijdstempel bevatten die wordt vergeleken en gesynchroniseerd met een referentie tijdsbron.</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Onderhoudsinstrumenten kunnen hardware/software diagnostische testapparatuur, hardware/software packet sniffers en laptops omvatten.</t>
+          <t>Referentie tijdsbronnen zijn bijvoorbeeld een interne NTP-server (Network Time Protocol), een radioklok, een atoomklok en een GPS-tijdbron.</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Beschermingstechnologie (PR.PT)</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat storingen in de verwerking van audits op de systemen van de organisatie waarschuwingen genereren en bepaalde reacties teweegbrengen.</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Het gebruik van System Logging Protocol (Syslog) servers kan worden overwogen.</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Onderhoudsinstrumenten en draagbare opslagapparaten moeten worden geïnspecteerd wanneer zij de faciliteit worden binnengebracht en moeten worden beschermd door anti- malwareoplossingen, zodat zij worden gescand op kwaadaardige code voordat zij op de systemen van de organisatie worden gebruikt. - kernmaatregel -</t>
+          <t>De organisatie moet bevoegde personen in staat stellen de auditmogelijkheden uit te breiden wanneer gebeurtenissen dat vereisen.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -3188,34 +3266,34 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>De organisatie moet na onderhoud of reparatie/patching van hardware en software de beveiligingscontroles nazien en de nodige maatregelen nemen. - kernmaatregel -</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>PR.PT-2:  Verwisselbare media worden beschermd en het gebruik ervan wordt beperkt overeenkomstig het beleid.</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PR.MA-2:  Onderhoud op afstand van bedrijfsmiddelen van de organisatie moet worden goedgekeurd, geregistreerd en uitgevoerd op een wijze die ongeoorloofde toegang voorkomt.</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr"/>
+          <t>De beperking van het gebruik van draagbare opslagapparatuur moet worden gewaarborgd door een passend gedocumenteerd beleid en ondersteunende beveiligingen.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Onderhoud op afstand mag alleen plaatsvinden na voorafgaande goedkeuring, toezicht om ongeoorloofde toegang te voorkomen, en goedkeuring van het resultaat van de onderhoudsactiviteiten zoals beschreven in goedgekeurde processen of procedures.</t>
+          <t>Draagbare opslagapparatuur die systeemgegevens bevat, moet tijdens transit en wanneer in opslag worden gecontroleerd en beschermd. - kernmaatregel -</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Bescherming en controle kan het scannen van alle draagbare opslagapparaten op kwaadaardige code omvatten voordat zij op de systemen van de organisatie worden gebruikt.</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3301,7 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>De organisatie moet eisen dat diagnostische diensten met betrekking tot onderhoud op afstand worden uitgevoerd vanaf een systeem met een beveiliging die vergelijkbaar is met de beveiliging die op het gelijkwaardige kritieke systeem van de organisatie is geïmplementeerd.</t>
+          <t>De organisatie moet het aansluiten van verwijderbare media technisch verbieden, tenzij strikt noodzakelijk; in andere gevallen moet het uitvoeren van autoruns vanaf dergelijke media worden uitgeschakeld.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -3236,45 +3314,47 @@
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>De organisatie moet ervoor zorgen dat sterke authenticatie, registratie en sessiebeëindiging voor onderhoud op afstand worden toegepast.</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>PR.PT-3:  Het beginsel van minimale functionaliteit wordt toegepast door systemen zo te configureren dat ze alleen essentiële mogelijkheden bieden.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Technische beveiligingsoplossingen worden beheerd om de beveiliging en veerkracht van systemen en activa te waarborgen, in overeenstemming met de desbetreffende beleidslijnen, procedures en overeenkomsten.</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
+          <t>De organisatie moet de bedrijfskritische systemen zo configureren dat zij alleen essentiële mogelijkheden bieden.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Overweeg de toepassing van het beginsel van de minste functionaliteit (“least functionality”) op toegangssystemen en -middelen (zie ook PR.AC-4).</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PR.PT-1:  Registraties van audits/logs worden vastgesteld, gedocumenteerd, uitgevoerd en herzien overeenkomstig beleid.</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr"/>
+          <t>De organisatie moet binnen haar kritische systemen vooraf gedefinieerde functies, poorten, protocollen en diensten uitschakelen die zij onnodig acht.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Logs worden bijgehouden, gedocumenteerd en geëvalueerd. - kernmaatregel -</t>
+          <t>De organisatie moet technische beveiligingen implementeren om een beleid van "alles weigeren" (“deny-all”) en "toestemming per uitzondering" (“permit-by-exception”) af te dwingen, zodat alleen geautoriseerde softwareprogramma's kunnen worden uitgevoerd.</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>• Zorg ervoor dat de activiteitenregistratiefunctie (“activity logging functionality “) van beschermings- /detectiehardware of -software (bv. firewalls, antivirus) is ingeschakeld. 
-• Logs moeten worden geback-upt en opgeslagen voor een vooraf bepaalde periode (zie ook PR.DS-4). 
-• De logs moeten worden nagezien op ongebruikelijke of ongewenste trends, zoals een groot gebruik van sociale media websites of een ongebruikelijk aantal virussen dat consequent op een bepaalde computer wordt aangetroffen. Deze trends kunnen wijzen op een ernstiger probleem of op de noodzaak van strengere bescherming op een bepaald gebied.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -3282,25 +3362,22 @@
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>De organisatie moet ervoor zorgen dat de logs een referentie tijdsbron of interne klok tijdstempel bevatten die wordt vergeleken en gesynchroniseerd met een referentie tijdsbron.</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Referentie tijdsbronnen zijn bijvoorbeeld een interne NTP-server (Network Time Protocol), een radioklok, een atoomklok en een GPS-tijdbron.</t>
-        </is>
-      </c>
+          <t>PR.PT-4:  Communicatie- en besturingsnetwerken zijn beveiligd.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
-          <t>De organisatie moet ervoor zorgen dat storingen in de verwerking van audits op de systemen van de organisatie waarschuwingen genereren en bepaalde reacties teweegbrengen.</t>
+          <t>Web- en e-mailfilters moeten worden geïnstalleerd en gebruikt.</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Het gebruik van System Logging Protocol (Syslog) servers kan worden overwogen.</t>
+          <t>• E-mailfilters zouden kwaadaardige e-mails moeten kunnen detecteren, en het filteren zou moeten worden geconfigureerd op basis van het type berichtbijlagen, zodat bestanden van de gespecificeerde types automatisch worden verwerkt (bv. verwijderd). 
+• Webfilters zouden de gebruiker moeten waarschuwen wanneer een website mogelijk malware bevat en mogelijk voorkomen dat gebruikers die website bezoeken.</t>
         </is>
       </c>
     </row>
@@ -3308,142 +3385,10 @@
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>De organisatie moet bevoegde personen in staat stellen de auditmogelijkheden uit te breiden wanneer gebeurtenissen dat vereisen.</t>
+          <t>De organisatie moet de informatiestromen/gegevensstromen binnen haar kritieke systemen en tussen onderling verbonden systemen beheersen.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>PR.PT-2:  Verwisselbare media worden beschermd en het gebruik ervan wordt beperkt overeenkomstig het beleid.</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr"/>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>De beperking van het gebruik van draagbare opslagapparatuur moet worden gewaarborgd door een passend gedocumenteerd beleid en ondersteunende beveiligingen.</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr"/>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Draagbare opslagapparatuur die systeemgegevens bevat, moet tijdens transit en wanneer in opslag worden gecontroleerd en beschermd. - kernmaatregel -</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Bescherming en controle kan het scannen van alle draagbare opslagapparaten op kwaadaardige code omvatten voordat zij op de systemen van de organisatie worden gebruikt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>De organisatie moet het aansluiten van verwijderbare media technisch verbieden, tenzij strikt noodzakelijk; in andere gevallen moet het uitvoeren van autoruns vanaf dergelijke media worden uitgeschakeld.</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr"/>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>PR.PT-3:  Het beginsel van minimale functionaliteit wordt toegepast door systemen zo te configureren dat ze alleen essentiële mogelijkheden bieden.</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr"/>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>De organisatie moet de bedrijfskritische systemen zo configureren dat zij alleen essentiële mogelijkheden bieden.</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Overweeg de toepassing van het beginsel van de minste functionaliteit (“least functionality”) op toegangssystemen en -middelen (zie ook PR.AC-4).</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr"/>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>De organisatie moet binnen haar kritische systemen vooraf gedefinieerde functies, poorten, protocollen en diensten uitschakelen die zij onnodig acht.</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr"/>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>De organisatie moet technische beveiligingen implementeren om een beleid van "alles weigeren" (“deny-all”) en "toestemming per uitzondering" (“permit-by-exception”) af te dwingen, zodat alleen geautoriseerde softwareprogramma's kunnen worden uitgevoerd.</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>PR.PT-4:  Communicatie- en besturingsnetwerken zijn beveiligd.</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr"/>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Web- en e-mailfilters moeten worden geïnstalleerd en gebruikt.</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>• E-mailfilters zouden kwaadaardige e-mails moeten kunnen detecteren, en het filteren zou moeten worden geconfigureerd op basis van het type berichtbijlagen, zodat bestanden van de gespecificeerde types automatisch worden verwerkt (bv. verwijderd). 
-• Webfilters zouden de gebruiker moeten waarschuwen wanneer een website mogelijk malware bevat en mogelijk voorkomen dat gebruikers die website bezoeken.</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr"/>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>De organisatie moet de informatiestromen/gegevensstromen binnen haar kritieke systemen en tussen onderling verbonden systemen beheersen.</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
         <is>
           <t>Overweeg het volgende: 
 • De informatiestroom kan bijvoorbeeld worden ondersteund door het labelen of kleuren van fysieke connectoren als hulpmiddel bij het handmatig aansluiten. 
@@ -3452,63 +3397,58 @@
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr"/>
-      <c r="B248" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
         <is>
           <t>De organisatie moet de interface voor externe communicatie beheren door een verkeersstroombeleid (“traffic flow”) vast te stellen, dat de vertrouwelijkheid en integriteit van de verzonden informatie beschermt.</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>DETECTEREN (DE)</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>Anomalieën en gebeurtenissen (DE.AE)</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr"/>
-      <c r="B251" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Afwijkende activiteiten worden gedetecteerd en de potentiële impact van events wordt begrepen.</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr"/>
-      <c r="B252" t="inlineStr">
+      <c r="C239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
         <is>
           <t>DE.AE-1:  Een baseline van netwerkoperaties en verwachte gegevensstromen voor gebruikers en systemen wordt vastgesteld en beheerd.</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr"/>
-      <c r="B253" t="inlineStr">
+      <c r="C240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
         <is>
           <t>De organisatie moet ervoor zorgen dat een baseline van netwerkoperaties en verwachte gegevensstromen voor haar kritieke systemen wordt vastgesteld, gedocumenteerd en bijgehouden om gebeurtenissen te volgen. - kernmaatregel -</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>• Overweeg lokale logging op al uw systemen en netwerkapparaten in te schakelen en deze gedurende een bepaalde periode te bewaren, bijvoorbeeld tot 6 maanden. 
 • Zorg ervoor dat uw logs voldoende informatie bevatten (bron, datum, gebruiker, tijdstempel, enz.) en dat u voldoende opslagruimte hebt voor het genereren ervan. 
@@ -3517,11 +3457,156 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>DE.AE-2:  Gedetecteerde events worden geanalyseerd om inzicht te krijgen in aanvalsdoelen en -methoden.</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>De organisatie moet gedetecteerde events evalueren en analyseren om inzicht te krijgen in aanvalsdoelen en -methoden.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>De organisatie moet waar mogelijk geautomatiseerde mechanismen toepassen om gedetecteerde events te beoordelen en te analyseren.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Overweeg uw logs regelmatig te bekijken om anomalieën of abnormale gebeurtenissen te identificeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>DE.AE-3:  Gegevens m.b.t. events worden verzameld en gecorreleerd uit meerdere bronnen en sensoren.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>De functionaliteit voor activiteitenregistratie (“activity logging”) van beschermings- /detectieapparatuur of -software (bv. firewalls, antivirus) moet worden ingeschakeld, er moet een back-up van worden gemaakt en deze moet worden nagezien. - kernmaatregel -</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>• Logs moeten worden geback-upt en opgeslagen voor een vooraf bepaalde periode. 
+• De logs moeten worden bekeken op ongebruikelijke of ongewenste trends, zoals een groot gebruik van sociale media websites of een ongebruikelijk aantal virussen dat consequent op een bepaalde computer wordt aangetroffen. Deze trends kunnen wijzen op een ernstiger probleem of op de noodzaak van strengere bescherming op een bepaald gebied. Zie ook PR.PT-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>De organisatie moet ervoor zorgen dat gegevens over events worden verzameld en gecorreleerd voor alle kritieke systemen, waarbij gebruik wordt gemaakt van verschillende bronnen, zoals verslagen over events, monitoring d.m.v. audits, netwerkmonitoring, monitoring op fysieke toegang en verslagen van gebruikers/beheerders.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>De organisatie moet de analyse van incidenten waar mogelijk integreren met de analyse van informatie over het scannen van kwetsbaarheden, prestatiegegevens, de bewaking van haar kritieke systemen en de bewaking van faciliteiten om nog beter in staat te zijn ongewenste of ongewone activiteiten op te sporen.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>DE.AE-4: De impact van events wordt bepaald.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>De negatieve gevolgen van gedetecteerde gebeurtenissen voor de activiteiten, activa en personen van de organisatie moeten worden bepaald en gecorreleerd met de resultaten van de risicobeoordeling.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>DE.AE-5:  Er worden alarmdrempels voor incidenten vastgesteld.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>De organisatie moet geautomatiseerde mechanismen en door het systeem gegenereerde waarschuwingen toepassen ter ondersteuning van de detectie van events en ter ondersteuning van de vaststelling van drempelwaarden voor beveiligingswaarschuwingen.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>De organisatie moet alarmdrempels voor incidenten vaststellen.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Voortdurende bewaking van de beveiliging (DE.CM)</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DE.AE-2:  Gedetecteerde events worden geanalyseerd om inzicht te krijgen in aanvalsdoelen en -methoden.</t>
+          <t>Het informatiesysteem en de activa worden gecontroleerd om cyberbeveiligingsgebeurtenissen vast te stellen en de doeltreffendheid van de beschermende maatregelen te verifiëren.</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -3530,25 +3615,23 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>De organisatie moet gedetecteerde events evalueren en analyseren om inzicht te krijgen in aanvalsdoelen en -methoden.</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>DE.CM-1: Het netwerk wordt gemonitord om potentiële cyberbeveiligingsevents op te sporen.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>De organisatie moet waar mogelijk geautomatiseerde mechanismen toepassen om gedetecteerde events te beoordelen en te analyseren.</t>
+          <t>Firewalls moeten worden geïnstalleerd en gebruikt op de netwerkgrenzen en aangevuld met firewallbescherming op de eindpunten.</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Overweeg uw logs regelmatig te bekijken om anomalieën of abnormale gebeurtenissen te identificeren.</t>
+          <t>• Eindpunten omvatten desktops, laptops, servers... 
+• Overweeg, waar mogelijk, smart phones en andere netwerkapparaten op te nemen bij de installatie en het gebruik van firewalls. 
+• Overweeg het aantal interconnectiepoorten naar het internet te beperken.</t>
         </is>
       </c>
     </row>
@@ -3556,172 +3639,24 @@
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DE.AE-3:  Gegevens m.b.t. events worden verzameld en gecorreleerd uit meerdere bronnen en sensoren.</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr"/>
+          <t>De organisatie moet ongeoorloofd gebruik van haar bedrijfskritische systemen bewaken en identificeren door het opsporen van ongeoorloofde lokale verbindingen, netwerkverbindingen en verbindingen op afstand. - kernmaatregel –</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>• Monitoring van netwerkcommunicatie zou plaats moeten vinden aan de buitengrens van de bedrijfskritische systemen van de organisatie en aan belangrijke interne grenzen binnen de systemen. 
+• Bij het hosten van op internet gerichte toepassingen zou de implementatie van een Web Application Firewall (WAF) kunnen worden overwogen.</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
-          <t>De functionaliteit voor activiteitenregistratie (“activity logging”) van beschermings- /detectieapparatuur of -software (bv. firewalls, antivirus) moet worden ingeschakeld, er moet een back-up van worden gemaakt en deze moet worden nagezien. - kernmaatregel -</t>
+          <t>De organisatie moet voortdurend toezicht houden op de beveiligingsstatus van haar netwerk om gedefinieerde informatie-/cyberbeveiligingsevents en indicatoren van potentiële informatie-/cyberbeveiligingsevents op te sporen.</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
-        <is>
-          <t>• Logs moeten worden geback-upt en opgeslagen voor een vooraf bepaalde periode. 
-• De logs moeten worden bekeken op ongebruikelijke of ongewenste trends, zoals een groot gebruik van sociale media websites of een ongebruikelijk aantal virussen dat consequent op een bepaalde computer wordt aangetroffen. Deze trends kunnen wijzen op een ernstiger probleem of op de noodzaak van strengere bescherming op een bepaald gebied. Zie ook PR.PT-1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr"/>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>De organisatie moet ervoor zorgen dat gegevens over events worden verzameld en gecorreleerd voor alle kritieke systemen, waarbij gebruik wordt gemaakt van verschillende bronnen, zoals verslagen over events, monitoring d.m.v. audits, netwerkmonitoring, monitoring op fysieke toegang en verslagen van gebruikers/beheerders.</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr"/>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>De organisatie moet de analyse van incidenten waar mogelijk integreren met de analyse van informatie over het scannen van kwetsbaarheden, prestatiegegevens, de bewaking van haar kritieke systemen en de bewaking van faciliteiten om nog beter in staat te zijn ongewenste of ongewone activiteiten op te sporen.</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr"/>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>DE.AE-4: De impact van events wordt bepaald.</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr"/>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>De negatieve gevolgen van gedetecteerde gebeurtenissen voor de activiteiten, activa en personen van de organisatie moeten worden bepaald en gecorreleerd met de resultaten van de risicobeoordeling.</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr"/>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>DE.AE-5:  Er worden alarmdrempels voor incidenten vastgesteld.</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr"/>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>De organisatie moet geautomatiseerde mechanismen en door het systeem gegenereerde waarschuwingen toepassen ter ondersteuning van de detectie van events en ter ondersteuning van de vaststelling van drempelwaarden voor beveiligingswaarschuwingen.</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr"/>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>De organisatie moet alarmdrempels voor incidenten vaststellen.</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Voortdurende bewaking van de beveiliging (DE.CM)</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr"/>
-      <c r="C266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr"/>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Het informatiesysteem en de activa worden gecontroleerd om cyberbeveiligingsgebeurtenissen vast te stellen en de doeltreffendheid van de beschermende maatregelen te verifiëren.</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr"/>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>DE.CM-1: Het netwerk wordt gemonitord om potentiële cyberbeveiligingsevents op te sporen.</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr"/>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Firewalls moeten worden geïnstalleerd en gebruikt op de netwerkgrenzen en aangevuld met firewallbescherming op de eindpunten.</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>• Eindpunten omvatten desktops, laptops, servers... 
-• Overweeg, waar mogelijk, smart phones en andere netwerkapparaten op te nemen bij de installatie en het gebruik van firewalls. 
-• Overweeg het aantal interconnectiepoorten naar het internet te beperken.</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr"/>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>De organisatie moet ongeoorloofd gebruik van haar bedrijfskritische systemen bewaken en identificeren door het opsporen van ongeoorloofde lokale verbindingen, netwerkverbindingen en verbindingen op afstand. - kernmaatregel –</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>• Monitoring van netwerkcommunicatie zou plaats moeten vinden aan de buitengrens van de bedrijfskritische systemen van de organisatie en aan belangrijke interne grenzen binnen de systemen. 
-• Bij het hosten van op internet gerichte toepassingen zou de implementatie van een Web Application Firewall (WAF) kunnen worden overwogen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr"/>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>De organisatie moet voortdurend toezicht houden op de beveiligingsstatus van haar netwerk om gedefinieerde informatie-/cyberbeveiligingsevents en indicatoren van potentiële informatie-/cyberbeveiligingsevents op te sporen.</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
         <is>
           <t>Het toezicht op de beveiligingsstatus kan het volgende omvatten: 
 • Het genereren van systeemwaarschuwingen wanneer er aanwijzingen zijn van een (mogelijke) compromittering. 
@@ -3731,16 +3666,169 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>De fysieke omgeving van de faciliteit wordt bewaakt op potentiële informatie- /cyberbeveiligingsincidenten.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DE.CM-2: De fysieke omgeving wordt bewaakt om potentiële cyberbeveiligingsgebeurtenissen op te sporen.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>De fysieke toegang tot kritieke systemen en apparaten van de organisatie moet, bovenop de fysieke toegangscontrole tot de faciliteit, worden verhoogd door middel van fysieke inbraakalarmen, bewakingsapparatuur, onafhankelijke bewakingsteams.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Het is aanbevolen om alle bezoekers te loggen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>DE.CM-3: Personeelsactiviteiten worden gemonitord om potentiële cyberbeveiligingsgebeurtenissen op te sporen.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Er moeten instrumenten voor eindpunt- en netwerkbescherming worden toegepast om het gedrag van de eindgebruiker te monitoren op gevaarlijke activiteiten.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Overweeg de inzet van een Intrusion Detection/Prevention systeem (IDS/IPS).</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Eindpunt- en netwerkbeschermingsinstrumenten die het gedrag van eindgebruikers monitoren op gevaarlijke activiteiten, moeten worden beheerd.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>• Overweeg het gebruik van een gecentraliseerd logplatform voor de consolidatie en exploitatie van logbestanden. 
+• Overweeg om de waarschuwingen die worden gegenereerd vanwege verdachte activiteiten actief te onderzoeken en passende maatregelen te nemen om de bedreiging te verhelpen, bijvoorbeeld door de inzet van een Security Operations Center (SOC).</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Er moet worden toegezien op het gebruik en de installatie van software.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Alleen geautoriseerde software zou mogen worden gebruikt, en de toegangsrechten van gebruikers zou beperkt moeten worden tot de specifieke gegevens, middelen en toepassingen die nodig zijn om een vereiste taak uit te voeren (“least privilege principle”).</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>DE.CM-4:  Kwaadaardige code wordt gedetecteerd.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Anti-virus, -spyware en andere -malware programma's moeten worden geïnstalleerd en bijgewerkt. - kernmaatregel –</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>• Malware omvat virussen, spyware en ransomware en zou moeten worden bestreden door anti-virus en anti-spyware software te installeren, te gebruiken en regelmatig bij te werken op elk apparaat dat in het bedrijf wordt gebruikt (waaronder computers, smartphones, tablets en servers). 
+• Anti-virus- en anti-spywaresoftware zou automatisch moeten controleren op updates in "real-time" of ten minste dagelijks, eventueel gevolgd door een systeemscan. 
+• Er zou overwogen moeten worden om dezelfde beschermingsmechanismen tegen kwaadaardige code te bieden voor thuiscomputers (bv. telewerken) of persoonlijke apparaten die voor beroepsmatig werk worden gebruikt (“Bring Your Own Device” - BYOD).</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>De organisatie moet een systeem opzetten om valse incidenten (“false positives”) te detecteren bij het opsporen en uitroeien van kwaadaardige code.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>DE.CM-5:  Ongeoorloofde mobiele code is gedetecteerd.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>De organisatie dient aanvaardbare en onaanvaardbare mobiele code en mobiele code technologieën te definiëren; en het gebruik van mobiele code binnen het systeem toe te staan, te bewaken en te monitoren.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>• Mobiele code omvat elk programma, toepassing of inhoud die over een netwerk kan worden verzonden (bv. ingesloten in een e-mail, document of website) en op een systeem op afstand kan worden uitgevoerd. Technologieën voor mobiele code zijn bijvoorbeeld Java-applets, JavaScript, HTML5, WebGL en VBScript. 
+• Beslissingen over het gebruik van mobiele code in organisatiesystemen zouden gebaseerd moeten zijn op de mogelijkheid dat de code bij kwaadwillig gebruik schade aan de systemen toebrengt. Voor de selectie en het gebruik van geïnstalleerde mobiele code zouden gebruiksbeperkingen en uitvoeringsrichtsnoeren moeten gelden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>DE.CM-6: De activiteit van externe dienstverleners wordt gemonitord om potentiële cyberbeveiligingsgebeurtenissen op te sporen.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+    </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>De fysieke omgeving van de faciliteit wordt bewaakt op potentiële informatie- /cyberbeveiligingsincidenten.</t>
+          <t>Alle externe verbindingen door verkopers die IT/OT-toepassingen of infrastructuur ondersteunen, moeten worden beveiligd en actief gemonitord om ervoor te zorgen dat tijdens de verbinding alleen toegestane handelingen plaatsvinden.</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Dit toezicht omvat toegang door onbevoegd personeel, verbindingen, apparaten en software.</t>
         </is>
       </c>
     </row>
@@ -3748,43 +3836,49 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DE.CM-2: De fysieke omgeving wordt bewaakt om potentiële cyberbeveiligingsgebeurtenissen op te sporen.</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr"/>
+          <t>Op de naleving door externe dienstverleners van het beleid en de procedures inzake personeelsbeveiliging en de contractbeveiligingseisen moet toezicht worden gehouden in verhouding tot hun cyberbeveiligingsrisico's.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>De fysieke toegang tot kritieke systemen en apparaten van de organisatie moet, bovenop de fysieke toegangscontrole tot de faciliteit, worden verhoogd door middel van fysieke inbraakalarmen, bewakingsapparatuur, onafhankelijke bewakingsteams.</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Het is aanbevolen om alle bezoekers te loggen.</t>
-        </is>
-      </c>
+          <t>DE.CM-7:  Monitoring op onbevoegd personeel, verbindingen, apparatuur en software wordt uitgevoerd.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DE.CM-3: Personeelsactiviteiten worden gemonitord om potentiële cyberbeveiligingsgebeurtenissen op te sporen.</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr"/>
+          <t>De bedrijfskritische systemen van de organisatie moeten worden gemonitord op ongeoorloofde toegang van personeel, verbindingen, apparaten, toegangspunten en software.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>• Toegang door onbevoegd personeel omvat ook toegang door externe dienstverleners. 
+• Discrepanties in de systeeminventaris zouden in het toezicht moeten worden opgenomen. 
+• Ongeoorloofde configuratiewijzigingen aan kritieke systemen van de organisatie zouden in de monitoring moeten worden opgenomen.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Er moeten instrumenten voor eindpunt- en netwerkbescherming worden toegepast om het gedrag van de eindgebruiker te monitoren op gevaarlijke activiteiten.</t>
+          <t>Ongeoorloofde wijzigingen in de configuratie van de systemen van de organisatie moeten worden gecontroleerd en aangepakt met passende risicobeperkende (mitigatie) maatregelen.</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Overweeg de inzet van een Intrusion Detection/Prevention systeem (IDS/IPS).</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -3792,26 +3886,21 @@
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Eindpunt- en netwerkbeschermingsinstrumenten die het gedrag van eindgebruikers monitoren op gevaarlijke activiteiten, moeten worden beheerd.</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>• Overweeg het gebruik van een gecentraliseerd logplatform voor de consolidatie en exploitatie van logbestanden. 
-• Overweeg om de waarschuwingen die worden gegenereerd vanwege verdachte activiteiten actief te onderzoeken en passende maatregelen te nemen om de bedreiging te verhelpen, bijvoorbeeld door de inzet van een Security Operations Center (SOC).</t>
-        </is>
-      </c>
+          <t>DE.CM-8:  Kwetsbaarheidsscans worden uitgevoerd.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Er moet worden toegezien op het gebruik en de installatie van software.</t>
+          <t>De organisatie moet op kwetsbaarheden in haar kritieke systemen en gehoste toepassingen monitoren en scannen en ervoor zorgen dat het scannen geen negatieve gevolgen heeft voor de systeemfuncties.</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Alleen geautoriseerde software zou mogen worden gebruikt, en de toegangsrechten van gebruikers zou beperkt moeten worden tot de specifieke gegevens, middelen en toepassingen die nodig zijn om een vereiste taak uit te voeren (“least privilege principle”).</t>
+          <t>Overweeg de uitvoering van een permanent programma voor het scannen van kwetsbaarheden; met inbegrip van plannen voor rapportage en beperking.</t>
         </is>
       </c>
     </row>
@@ -3819,94 +3908,92 @@
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DE.CM-4:  Kwaadaardige code wordt gedetecteerd.</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr"/>
+          <t>Het scannen van kwetsbaarheden moet analyse, herstel en het delen van informatie omvatten.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Opsporingsprocessen (DE.DP)</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Anti-virus, -spyware en andere -malware programma's moeten worden geïnstalleerd en bijgewerkt. - kernmaatregel –</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>• Malware omvat virussen, spyware en ransomware en zou moeten worden bestreden door anti-virus en anti-spyware software te installeren, te gebruiken en regelmatig bij te werken op elk apparaat dat in het bedrijf wordt gebruikt (waaronder computers, smartphones, tablets en servers). 
-• Anti-virus- en anti-spywaresoftware zou automatisch moeten controleren op updates in "real-time" of ten minste dagelijks, eventueel gevolgd door een systeemscan. 
-• Er zou overwogen moeten worden om dezelfde beschermingsmechanismen tegen kwaadaardige code te bieden voor thuiscomputers (bv. telewerken) of persoonlijke apparaten die voor beroepsmatig werk worden gebruikt (“Bring Your Own Device” - BYOD).</t>
-        </is>
-      </c>
+          <t>Detectieprocessen en -procedures worden onderhouden en getest om ervoor te zorgen dat men zich bewust is van abnormale events.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
-          <t>De organisatie moet een systeem opzetten om valse incidenten (“false positives”) te detecteren bij het opsporen en uitroeien van kwaadaardige code.</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>DE.DP-2:  Detectie moet gebeuren conform alle toepasselijke eisen.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DE.CM-5:  Ongeoorloofde mobiele code is gedetecteerd.</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr"/>
+          <t>De organisatie moet detectie van abnormale events uitvoeren in overeenstemming met de toepasselijke federale en regionale wetten, industriële voorschriften en normen, beleidslijnen en andere toepasselijke vereisten.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>De organisatie dient aanvaardbare en onaanvaardbare mobiele code en mobiele code technologieën te definiëren; en het gebruik van mobiele code binnen het systeem toe te staan, te bewaken en te monitoren.</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>• Mobiele code omvat elk programma, toepassing of inhoud die over een netwerk kan worden verzonden (bv. ingesloten in een e-mail, document of website) en op een systeem op afstand kan worden uitgevoerd. Technologieën voor mobiele code zijn bijvoorbeeld Java-applets, JavaScript, HTML5, WebGL en VBScript. 
-• Beslissingen over het gebruik van mobiele code in organisatiesystemen zouden gebaseerd moeten zijn op de mogelijkheid dat de code bij kwaadwillig gebruik schade aan de systemen toebrengt. Voor de selectie en het gebruik van geïnstalleerde mobiele code zouden gebruiksbeperkingen en uitvoeringsrichtsnoeren moeten gelden.</t>
-        </is>
-      </c>
+          <t>DE.DP-3:  Detectieprocessen worden getest.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>DE.CM-6: De activiteit van externe dienstverleners wordt gemonitord om potentiële cyberbeveiligingsgebeurtenissen op te sporen.</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr"/>
+          <t>De organisatie moet valideren dat de processen gebruikt voor het detecteren van abnormale events werken zoals bedoeld.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>• Validatie omvat testen. 
+• Validatie zou aantoonbaar moeten zijn.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Alle externe verbindingen door verkopers die IT/OT-toepassingen of infrastructuur ondersteunen, moeten worden beveiligd en actief gemonitord om ervoor te zorgen dat tijdens de verbinding alleen toegestane handelingen plaatsvinden.</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Dit toezicht omvat toegang door onbevoegd personeel, verbindingen, apparaten en software.</t>
-        </is>
-      </c>
+          <t>DE.DP-4:  Informatie over gedetecteerde events wordt gecommuniceerd.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Op de naleving door externe dienstverleners van het beleid en de procedures inzake personeelsbeveiliging en de contractbeveiligingseisen moet toezicht worden gehouden in verhouding tot hun cyberbeveiligingsrisico's.</t>
+          <t>De organisatie moet informatie over gedetecteerde events doorgeven aan vooraf bepaalde partijen.</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Informatie over gedetecteerde events omvat bijvoorbeeld waarschuwingen over atypisch accountgebruik, ongeoorloofde toegang op afstand, draadloze connectiviteit, verbinding met mobiele apparatuur, gewijzigde configuratie-instellingen, contrasterende inventaris van systeemonderdelen, gebruik van onderhoudsmiddelen en niet-lokaal onderhoud, fysieke toegang, temperatuur en vochtigheid, levering en verwijdering van apparatuur, communicatie aan de grenzen van het informatiesysteem, gebruik van mobiele code, gebruik van Voice over Internet Protocol (VoIP) en openbaarmaking van malware.</t>
         </is>
       </c>
     </row>
@@ -3914,7 +4001,7 @@
       <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DE.CM-7:  Monitoring op onbevoegd personeel, verbindingen, apparatuur en software wordt uitgevoerd.</t>
+          <t>DE.DP-5: De processen voor het detecteren van abnormale events worden voortdurend verbeterd.</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -3923,14 +4010,13 @@
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>De bedrijfskritische systemen van de organisatie moeten worden gemonitord op ongeoorloofde toegang van personeel, verbindingen, apparaten, toegangspunten en software.</t>
+          <t>Verbeteringen die voortvloeien uit monitoring, metingen, beoordelingen, tests, evaluatie en de getrokken lessen (“lessons learned”) moeten worden opgenomen in de herzieningen van het detectieproces.</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>• Toegang door onbevoegd personeel omvat ook toegang door externe dienstverleners. 
-• Discrepanties in de systeeminventaris zouden in het toezicht moeten worden opgenomen. 
-• Ongeoorloofde configuratiewijzigingen aan kritieke systemen van de organisatie zouden in de monitoring moeten worden opgenomen.</t>
+          <t>• Dit resulteert in een voortdurende verbetering van de opsporingsprocessen. 
+• Het gebruik van onafhankelijke teams om het opsporingsproces te beoordelen zou kunnen worden overwogen.</t>
         </is>
       </c>
     </row>
@@ -3938,64 +4024,70 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ongeoorloofde wijzigingen in de configuratie van de systemen van de organisatie moeten worden gecontroleerd en aangepakt met passende risicobeperkende (mitigatie) maatregelen.</t>
+          <t>De organisatie moet gespecialiseerde beoordelingen uitvoeren, waaronder grondige (“in depth”) monitoring, het scannen van kwetsbaarheden, het testen op kwaadwillende gebruikers, beoordeling van bedreigingen van binnenuit, prestatie-/belastingstests en verificatie- en validatietests op de kritieke systemen van de organisatie.</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Deze activiteiten kunnen worden uitbesteed, bij voorkeur aan erkende organisaties.</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr"/>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>DE.CM-8:  Kwetsbaarheidsscans worden uitgevoerd.</t>
-        </is>
-      </c>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>REAGEREN (RS)</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
       <c r="C290" t="inlineStr"/>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Responsplanning (RS.RP)</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>De organisatie moet op kwetsbaarheden in haar kritieke systemen en gehoste toepassingen monitoren en scannen en ervoor zorgen dat het scannen geen negatieve gevolgen heeft voor de systeemfuncties.</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Overweeg de uitvoering van een permanent programma voor het scannen van kwetsbaarheden; met inbegrip van plannen voor rapportage en beperking.</t>
-        </is>
-      </c>
+          <t>Responsprocessen en -procedures worden uitgevoerd en gehandhaafd, om te zorgen voor een reactie op gededecteerde cyberbeveiligingsincidenten.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Het scannen van kwetsbaarheden moet analyse, herstel en het delen van informatie omvatten.</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>RS.RP-1:  Het responsplan wordt uitgevoerd tijdens of na een incident.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Opsporingsprocessen (DE.DP)</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Tijdens of na een informatie-/cyberbeveiligingsincident op de kritieke systemen van de organisatie moet een incidentresponsproces, met inbegrip van rollen, verantwoordelijkheden en bevoegdheden, worden uitgevoerd.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>• Het incidentresponsplan zou een vooraf bepaalde reeks instructies of procedures moeten omvatten om een kwaadaardige cyberaanval op te sporen, erop te reageren en de gevolgen ervan te beperken. 
+• De rollen, verantwoordelijkheden en bevoegdheden in het incidentresponsplan zouden specifiek betrekking moeten hebben op de betrokken personen, de contactgegevens, de verschillende rollen en verantwoordelijkheden, en wie de beslissing neemt om responsprocedures in gang te zetten, alsook wie het contact zal zijn met de betrokken externe belanghebbenden. 
+• Er zou moeten worden overwogen de oorzaken van een gebeurtenis op het gebied van informatie- /cyberbeveiliging vast te stellen en een corrigerende maatregel uit te voeren om te voorkomen dat de gebeurtenis zich herhaalt of zich elders voordoet (een infectie met kwaadaardige code op één machine heeft zich niet elders in het netwerk verspreid). De doeltreffendheid van de genomen corrigerende maatregelen moet worden geëvalueerd. De corrigerende maatregelen moeten afgestemd zijn op de gevolgen van het voorval op het gebied van informatie-/cyberbeveiliging.</t>
+        </is>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr"/>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Communicatie (RS.CO)</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Detectieprocessen en -procedures worden onderhouden en getest om ervoor te zorgen dat men zich bewust is van abnormale events.</t>
+          <t>De responsactiviteiten worden gecoördineerd met interne en externe belanghebbenden (bijvoorbeeld externe steun van wetshandhavingsinstanties).</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -4004,7 +4096,7 @@
       <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DE.DP-2:  Detectie moet gebeuren conform alle toepasselijke eisen.</t>
+          <t>RS.CO-1:  Het personeel kent zijn rol en volgorde van handelen wanneer een reactie nodig is.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -4013,12 +4105,12 @@
       <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
-          <t>De organisatie moet detectie van abnormale events uitvoeren in overeenstemming met de toepasselijke federale en regionale wetten, industriële voorschriften en normen, beleidslijnen en andere toepasselijke vereisten.</t>
+          <t>De organisatie moet ervoor zorgen dat het personeel zijn rol, doelstellingen, herstelprioriteiten, taakvolgorde en toegewezen verantwoordelijkheden voor de reactie op een evenement begrijpt.</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Overweeg het gebruik van de CCB Incident Management Guide als leidraad bij deze oefening en overweeg zo nodig externe deskundigen in te schakelen. Test uw plan regelmatig en pas het na elk incident aan.</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4118,7 @@
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DE.DP-3:  Detectieprocessen worden getest.</t>
+          <t>RS.CO-2:  Incidenten worden gemeld overeenkomstig de vastgestelde criteria.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -4035,13 +4127,12 @@
       <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
-          <t>De organisatie moet valideren dat de processen gebruikt voor het detecteren van abnormale events werken zoals bedoeld.</t>
+          <t>De organisatie moet de rapportage implementeren over informatie- /cyberbeveiligingsincidenten op haar kritieke systemen binnen een door de organisatie bepaald tijdsbestek aan door de organisatie bepaald personeel of bepaalde rollen.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>• Validatie omvat testen. 
-• Validatie zou aantoonbaar moeten zijn.</t>
+          <t>Alle gebruikers zouden één contactpunt moeten hebben om elk incident te melden en moeten worden aangemoedigd om dat te doen.</t>
         </is>
       </c>
     </row>
@@ -4049,44 +4140,47 @@
       <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DE.DP-4:  Informatie over gedetecteerde events wordt gecommuniceerd.</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
+          <t>Gebeurtenissen worden gerapporteerd volgens vastgestelde criteria.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>De criteria voor rapportage zouden moeten worden opgenomen in het incidentresponseplan.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
-          <t>De organisatie moet informatie over gedetecteerde events doorgeven aan vooraf bepaalde partijen.</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Informatie over gedetecteerde events omvat bijvoorbeeld waarschuwingen over atypisch accountgebruik, ongeoorloofde toegang op afstand, draadloze connectiviteit, verbinding met mobiele apparatuur, gewijzigde configuratie-instellingen, contrasterende inventaris van systeemonderdelen, gebruik van onderhoudsmiddelen en niet-lokaal onderhoud, fysieke toegang, temperatuur en vochtigheid, levering en verwijdering van apparatuur, communicatie aan de grenzen van het informatiesysteem, gebruik van mobiele code, gebruik van Voice over Internet Protocol (VoIP) en openbaarmaking van malware.</t>
-        </is>
-      </c>
+          <t>RS.CO-3:  Informatie wordt gedeeld in overeenstemming met de responsplannen.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DE.DP-5: De processen voor het detecteren van abnormale events worden voortdurend verbeterd.</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
+          <t>Informatie m.b.t. informatie-/cyberbeveiligingsincidenten moet worden gecommuniceerd aan de werknemers van de organisatie op een manier die zij kunnen begrijpen.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Verbeteringen die voortvloeien uit monitoring, metingen, beoordelingen, tests, evaluatie en de getrokken lessen (“lessons learned”) moeten worden opgenomen in de herzieningen van het detectieproces.</t>
+          <t>De organisatie deelt informatie over informatie/cyberbeveiligingsincidenten met relevante belanghebbenden zoals voorzien in het responsplan voor incidenten.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>• Dit resulteert in een voortdurende verbetering van de opsporingsprocessen. 
-• Het gebruik van onafhankelijke teams om het opsporingsproces te beoordelen zou kunnen worden overwogen.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -4094,47 +4188,56 @@
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>De organisatie moet gespecialiseerde beoordelingen uitvoeren, waaronder grondige (“in depth”) monitoring, het scannen van kwetsbaarheden, het testen op kwaadwillende gebruikers, beoordeling van bedreigingen van binnenuit, prestatie-/belastingstests en verificatie- en validatietests op de kritieke systemen van de organisatie.</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Deze activiteiten kunnen worden uitbesteed, bij voorkeur aan erkende organisaties.</t>
-        </is>
-      </c>
+          <t>RS.CO-4:  Coördinatie met belanghebbenden vindt plaats in overeenstemming met de responsplannen.</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>REAGEREN (RS)</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr"/>
-      <c r="C304" t="inlineStr"/>
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>De organisatie moet de acties ter bestrijding van informatie-/cyberbeveiligingsincidenten met alle vooraf bepaalde belanghebbenden coördineren.</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>• Stakeholders voor incident response zijn bijvoorbeeld eigenaren van missies/bedrijven, eigenaren van kritieke systemen van de organisatie, integrators, verkopers, personeelskantoren, fysieke en personeelsbeveiligingskantoren, juridische afdelingen, operationeel personeel en inkoopkantoren. 
+• De coördinatie met belanghebbenden zou plaats moeten vinden in overeenstemming met de incidentbestrijdingsplannen.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Responsplanning (RS.RP)</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr"/>
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>RS.CO-5: Er vindt vrijwillige informatie-uitwisseling plaats met externe belanghebbenden om een breder situationeel bewustzijn over cyberbeveiliging te bereiken.</t>
+        </is>
+      </c>
       <c r="C305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Responsprocessen en -procedures worden uitgevoerd en gehandhaafd, om te zorgen voor een reactie op gededecteerde cyberbeveiligingsincidenten.</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr"/>
+          <t>De organisatie moet, waar toepasselijk, vrijwillig informatie over informatie/cyberbeveiligingsincidenten delen met externe belanghebbenden, beveiligingsgroepen uit de sector... om een breder situationeel bewustzijn te bereiken m.b.t. informatie/cyberbeveiliging.</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Analyse (RS.AN)</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RS.RP-1:  Het responsplan wordt uitgevoerd tijdens of na een incident.</t>
+          <t>Er worden analyses uitgevoerd om een doeltreffende reactie te waarborgen en herstelactiviteiten te ondersteunen.</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -4143,40 +4246,42 @@
       <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tijdens of na een informatie-/cyberbeveiligingsincident op de kritieke systemen van de organisatie moet een incidentresponsproces, met inbegrip van rollen, verantwoordelijkheden en bevoegdheden, worden uitgevoerd.</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>• Het incidentresponsplan zou een vooraf bepaalde reeks instructies of procedures moeten omvatten om een kwaadaardige cyberaanval op te sporen, erop te reageren en de gevolgen ervan te beperken. 
-• De rollen, verantwoordelijkheden en bevoegdheden in het incidentresponsplan zouden specifiek betrekking moeten hebben op de betrokken personen, de contactgegevens, de verschillende rollen en verantwoordelijkheden, en wie de beslissing neemt om responsprocedures in gang te zetten, alsook wie het contact zal zijn met de betrokken externe belanghebbenden. 
-• Er zou moeten worden overwogen de oorzaken van een gebeurtenis op het gebied van informatie- /cyberbeveiliging vast te stellen en een corrigerende maatregel uit te voeren om te voorkomen dat de gebeurtenis zich herhaalt of zich elders voordoet (een infectie met kwaadaardige code op één machine heeft zich niet elders in het netwerk verspreid). De doeltreffendheid van de genomen corrigerende maatregelen moet worden geëvalueerd. De corrigerende maatregelen moeten afgestemd zijn op de gevolgen van het voorval op het gebied van informatie-/cyberbeveiliging.</t>
-        </is>
-      </c>
+          <t>RS.AN-1:  Meldingen van detectiesystemen worden onderzocht.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Communicatie (RS.CO)</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr"/>
-      <c r="C309" t="inlineStr"/>
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>De organisatie moet informatie-/cyberbeveiligingsgerelateerde meldingen van detectiesystemen onderzoeken.</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>De responsactiviteiten worden gecoördineerd met interne en externe belanghebbenden (bijvoorbeeld externe steun van wetshandhavingsinstanties).</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
+          <t>De organisatie moet geautomatiseerde mechanismen invoeren ter ondersteuning van het onderzoek en de analyse van informatie-/cyberbeveiligingsmeldingen.</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
-          <t>RS.CO-1:  Het personeel kent zijn rol en volgorde van handelen wanneer een reactie nodig is.</t>
+          <t>RS.AN-2:  De gevolgen van het incident worden begrepen.</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -4185,12 +4290,13 @@
       <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
-          <t>De organisatie moet ervoor zorgen dat het personeel zijn rol, doelstellingen, herstelprioriteiten, taakvolgorde en toegewezen verantwoordelijkheden voor de reactie op een evenement begrijpt.</t>
+          <t>Grondig onderzoek en analyse van de resultaten moeten de basis vormen voor een volledig begrip van de gevolgen van het informatie-/cyberbeveiligingsincident.</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Overweeg het gebruik van de CCB Incident Management Guide als leidraad bij deze oefening en overweeg zo nodig externe deskundigen in te schakelen. Test uw plan regelmatig en pas het na elk incident aan.</t>
+          <t>• Resultaatanalyse kan voortkomen uit de correlatie tussen de informatie van de gedetecteerde gebeurtenis en de uitkomst van risicobeoordelingen. Op die manier wordt inzicht verkregen in de impact van de gebeurtenis in de hele organisatie. 
+• Er zou overwogen moeten worden de detectie van ongeoorloofde wijzigingen in zijn kritieke systemen op te nemen in de mogelijkheden om op incidenten te reageren.</t>
         </is>
       </c>
     </row>
@@ -4198,34 +4304,34 @@
       <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RS.CO-2:  Incidenten worden gemeld overeenkomstig de vastgestelde criteria.</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
+          <t>De organisatie moet geautomatiseerde mechanismen invoeren ter ondersteuning van de impactanalyse van incidenten.</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>De implementatie kan variëren van een ticketingsysteem tot een Security Information and Event Management (SIEM).</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>De organisatie moet de rapportage implementeren over informatie- /cyberbeveiligingsincidenten op haar kritieke systemen binnen een door de organisatie bepaald tijdsbestek aan door de organisatie bepaald personeel of bepaalde rollen.</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Alle gebruikers zouden één contactpunt moeten hebben om elk incident te melden en moeten worden aangemoedigd om dat te doen.</t>
-        </is>
-      </c>
+          <t>RS.AN-3: Forensisch onderzoek wordt uitgevoerd .</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Gebeurtenissen worden gerapporteerd volgens vastgestelde criteria.</t>
+          <t>De organisatie moet op verzoek auditcontrole, analyse en rapportage verstrekken voor onderzoeken na de feiten van informatie-/cyberbeveiligingsincidenten.</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>De criteria voor rapportage zouden moeten worden opgenomen in het incidentresponseplan.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -4233,34 +4339,36 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>RS.CO-3:  Informatie wordt gedeeld in overeenstemming met de responsplannen.</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
+          <t>De organisatie moet forensische analyses uitvoeren op verzamelde informatie van informatie/cyberincidenten om de hoofdoorzaak (“root cause”) vast te stellen.</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Overweeg zo nodig forensische analyse op verzamelde informatie van informatie/cyberincidenten te gebruiken om de hoofdoorzaak (“root cause”) vast te kunnen stellen.</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Informatie m.b.t. informatie-/cyberbeveiligingsincidenten moet worden gecommuniceerd aan de werknemers van de organisatie op een manier die zij kunnen begrijpen.</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>RS.AN-4: Incidenten worden in categorieën ingedeeld overeenkomstig de responsplannen.</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
-          <t>De organisatie deelt informatie over informatie/cyberbeveiligingsincidenten met relevante belanghebbenden zoals voorzien in het responsplan voor incidenten.</t>
+          <t>Informatie-/cyberbeveiligingsincidenten moeten worden ingedeeld naar ernst en impact overeenkomstig de evaluatiecriteria in het incidentbestrijdingsplan.</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>• Er zou overwogen moeten worden de oorzaken van een incident op het gebied van informatie- /cyberbeveiliging vast te stellen, en een corrigerende maatregel uit te voeren, zodat het incident niet meer voorkomt of zich elders voordoet. 
+• De doeltreffendheid van eventuele corrigerende maatregelen zou geëvalueerd moeten worden. 
+• De corrigerende maatregelen zouden proportioneel moeten zijn met de gevolgen van het informatie- /cyberbeveiligingsincident.</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4376,7 @@
       <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
-          <t>RS.CO-4:  Coördinatie met belanghebbenden vindt plaats in overeenstemming met de responsplannen.</t>
+          <t>RS.AN-5:  Er zijn processen vastgesteld voor het ontvangen, analyseren en reageren op kwetsbaarheden die uit interne en externe bronnen (bv. interne tests, beveiligingsbulletins of beveiligingsonderzoekers) aan de organisatie bekend zijn gemaakt.</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -4277,13 +4385,12 @@
       <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
-          <t>De organisatie moet de acties ter bestrijding van informatie-/cyberbeveiligingsincidenten met alle vooraf bepaalde belanghebbenden coördineren.</t>
+          <t>De organisatie moet processen en procedures voor het beheer van kwetsbaarheden toepassen die het verwerken, analyseren en verhelpen van kwetsbaarheden uit interne en externe bronnen omvatten. - kernmaatregel -</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>• Stakeholders voor incident response zijn bijvoorbeeld eigenaren van missies/bedrijven, eigenaren van kritieke systemen van de organisatie, integrators, verkopers, personeelskantoren, fysieke en personeelsbeveiligingskantoren, juridische afdelingen, operationeel personeel en inkoopkantoren. 
-• De coördinatie met belanghebbenden zou plaats moeten vinden in overeenstemming met de incidentbestrijdingsplannen.</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -4291,38 +4398,42 @@
       <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
-          <t>RS.CO-5: Er vindt vrijwillige informatie-uitwisseling plaats met externe belanghebbenden om een breder situationeel bewustzijn over cyberbeveiliging te bereiken.</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
+          <t>De organisatie moet geautomatiseerde mechanismen invoeren voor het verspreiden en opvolgen aan de belangrijkste belanghebbenden van mitigatiewerkzaamheden in antwoord op informatie over kwetsbaarheden afkomstig uit interne en externe bronnen.</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr"/>
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Mitigatie (RS.MI)</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>De organisatie moet, waar toepasselijk, vrijwillig informatie over informatie/cyberbeveiligingsincidenten delen met externe belanghebbenden, beveiligingsgroepen uit de sector... om een breder situationeel bewustzijn te bereiken m.b.t. informatie/cyberbeveiliging.</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>Er worden activiteiten uitgevoerd om uitbreiding van een gebeurtenis te voorkomen, de gevolgen ervan te beperken en het incident op te lossen.</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Analyse (RS.AN)</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr"/>
+      <c r="A323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>RS.MI-1:  Incidenten worden beheerst.</t>
+        </is>
+      </c>
       <c r="C323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Er worden analyses uitgevoerd om een doeltreffende reactie te waarborgen en herstelactiviteiten te ondersteunen.</t>
+          <t>RS.MI-2:  Incidenten worden gemitigeerd.</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -4331,7 +4442,7 @@
       <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
-          <t>RS.AN-1:  Meldingen van detectiesystemen worden onderzocht.</t>
+          <t>RS.MI-3:  Nieuw vastgestelde kwetsbaarheden worden gemitigeerd of gedocumenteerd als aanvaarde risico's.</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -4340,33 +4451,33 @@
       <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
-          <t>De organisatie moet informatie-/cyberbeveiligingsgerelateerde meldingen van detectiesystemen onderzoeken.</t>
+          <t>De organisatie moet een capaciteit voor het afhandelen van informatie- /cyberbeveiligingsincidenten op haar bedrijfskritische systemen implementeren die de voorbereiding, detectie, analyse, insluiting (“containment”), uitroeiing, herstel en gedocumenteerde risicoaanvaarding omvat.</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>Een gedocumenteerde risicoaanvaarding heeft betrekking op risico's die volgens de organisatie niet gevaarlijk zijn voor de bedrijfskritische systemen van de organisatie en waarbij de eigenaar van het risico het risico formeel aanvaardt (gerelateerd aan de risicobereidheid, ”risk appetite”, van de organisatie).</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Verbeteringen (RS.IM)</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>De organisatie moet geautomatiseerde mechanismen invoeren ter ondersteuning van het onderzoek en de analyse van informatie-/cyberbeveiligingsmeldingen.</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
+          <t>De responsactiviteiten van de organisatie worden verbeterd door lessen te trekken uit huidige en eerdere opsporings- en responsactiviteiten.</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>RS.AN-2:  De gevolgen van het incident worden begrepen.</t>
+          <t>RS.IM-1:  In de responsplannen zijn de geleerde lessen verwerkt.</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -4375,13 +4486,12 @@
       <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Grondig onderzoek en analyse van de resultaten moeten de basis vormen voor een volledig begrip van de gevolgen van het informatie-/cyberbeveiligingsincident.</t>
+          <t>De organisatie moet evaluaties uitvoeren na een incident om lessen te trekken uit de reactie op en het herstel van incidenten, en verbetert vervolgens de processen / procedures / technologieën om haar cyberweerbaarheid te vergroten.</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>• Resultaatanalyse kan voortkomen uit de correlatie tussen de informatie van de gedetecteerde gebeurtenis en de uitkomst van risicobeoordelingen. Op die manier wordt inzicht verkregen in de impact van de gebeurtenis in de hele organisatie. 
-• Er zou overwogen moeten worden de detectie van ongeoorloofde wijzigingen in zijn kritieke systemen op te nemen in de mogelijkheden om op incidenten te reageren.</t>
+          <t>Overweeg na elk incident de betrokkenen samen te brengen en samen na te denken over manieren om te verbeteren wat er is gebeurd, hoe het is gebeurd, hoe er is gereageerd, hoe het beter had kunnen gaan, wat er moet gebeuren om herhaling te voorkomen, enz.</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4499,12 @@
       <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
-          <t>De organisatie moet geautomatiseerde mechanismen invoeren ter ondersteuning van de impactanalyse van incidenten.</t>
+          <t>De uit de afhandeling van incidenten geleerde lessen moeten worden vertaald in bijgewerkte of nieuwe procedures voor de afhandeling van incidenten, die op hun beurt moeten worden getest, goedgekeurd en getraind.</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>De implementatie kan variëren van een ticketingsysteem tot een Security Information and Event Management (SIEM).</t>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4512,7 @@
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>RS.AN-3: Forensisch onderzoek wordt uitgevoerd .</t>
+          <t>RS.IM-2:  Reactie- en herstelstrategieën worden bijgewerkt.</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -4411,33 +4521,33 @@
       <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
-          <t>De organisatie moet op verzoek auditcontrole, analyse en rapportage verstrekken voor onderzoeken na de feiten van informatie-/cyberbeveiligingsincidenten.</t>
+          <t>De organisatie moet de reactie- en herstelplannen aanpassen aan veranderingen in haar context.</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
+          <t>De context van de organisatie heeft betrekking op de organisatiestructuur, haar kritieke systemen, aanvalsvectoren, nieuwe bedreigingen, verbeterde technologie, de bedrijfsomgeving, problemen die zich hebben voorgedaan tijdens de implementatie/uitvoering/testen van het plan en de lessen die zijn geleerd.</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>De organisatie moet forensische analyses uitvoeren op verzamelde informatie van informatie/cyberincidenten om de hoofdoorzaak (“root cause”) vast te stellen.</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Overweeg zo nodig forensische analyse op verzamelde informatie van informatie/cyberincidenten te gebruiken om de hoofdoorzaak (“root cause”) vast te kunnen stellen.</t>
-        </is>
-      </c>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>HERSTELLEN (RC)</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Herstelplanning (RC.RP)</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>RS.AN-4: Incidenten worden in categorieën ingedeeld overeenkomstig de responsplannen.</t>
+          <t>Herstelprocessen en -procedures worden uitgevoerd en gehandhaafd om te zorgen voor herstel van systemen of activa die zijn getroffen door cyberbeveiligingsincidenten.</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -4446,229 +4556,19 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Informatie-/cyberbeveiligingsincidenten moeten worden ingedeeld naar ernst en impact overeenkomstig de evaluatiecriteria in het incidentbestrijdingsplan.</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>• Er zou overwogen moeten worden de oorzaken van een incident op het gebied van informatie- /cyberbeveiliging vast te stellen, en een corrigerende maatregel uit te voeren, zodat het incident niet meer voorkomt of zich elders voordoet. 
-• De doeltreffendheid van eventuele corrigerende maatregelen zou geëvalueerd moeten worden. 
-• De corrigerende maatregelen zouden proportioneel moeten zijn met de gevolgen van het informatie- /cyberbeveiligingsincident.</t>
-        </is>
-      </c>
+          <t>RC.RP-1: Het herstelplan wordt uitgevoerd tijdens of na een cyberbeveiligingsincident.</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
-          <t>RS.AN-5:  Er zijn processen vastgesteld voor het ontvangen, analyseren en reageren op kwetsbaarheden die uit interne en externe bronnen (bv. interne tests, beveiligingsbulletins of beveiligingsonderzoekers) aan de organisatie bekend zijn gemaakt.</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr"/>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>De organisatie moet processen en procedures voor het beheer van kwetsbaarheden toepassen die het verwerken, analyseren en verhelpen van kwetsbaarheden uit interne en externe bronnen omvatten. - kernmaatregel -</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr"/>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>De organisatie moet geautomatiseerde mechanismen invoeren voor het verspreiden en opvolgen aan de belangrijkste belanghebbenden van mitigatiewerkzaamheden in antwoord op informatie over kwetsbaarheden afkomstig uit interne en externe bronnen.</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Mitigatie (RS.MI)</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr"/>
-      <c r="C339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr"/>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Er worden activiteiten uitgevoerd om uitbreiding van een gebeurtenis te voorkomen, de gevolgen ervan te beperken en het incident op te lossen.</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>RS.MI-1:  Incidenten worden beheerst.</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr"/>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>RS.MI-2:  Incidenten worden gemitigeerd.</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr"/>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>RS.MI-3:  Nieuw vastgestelde kwetsbaarheden worden gemitigeerd of gedocumenteerd als aanvaarde risico's.</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr"/>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>De organisatie moet een capaciteit voor het afhandelen van informatie- /cyberbeveiligingsincidenten op haar bedrijfskritische systemen implementeren die de voorbereiding, detectie, analyse, insluiting (“containment”), uitroeiing, herstel en gedocumenteerde risicoaanvaarding omvat.</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Een gedocumenteerde risicoaanvaarding heeft betrekking op risico's die volgens de organisatie niet gevaarlijk zijn voor de bedrijfskritische systemen van de organisatie en waarbij de eigenaar van het risico het risico formeel aanvaardt (gerelateerd aan de risicobereidheid, ”risk appetite”, van de organisatie).</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Verbeteringen (RS.IM)</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
-      <c r="C345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr"/>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>De responsactiviteiten van de organisatie worden verbeterd door lessen te trekken uit huidige en eerdere opsporings- en responsactiviteiten.</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr"/>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>RS.IM-1:  In de responsplannen zijn de geleerde lessen verwerkt.</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr"/>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>De organisatie moet evaluaties uitvoeren na een incident om lessen te trekken uit de reactie op en het herstel van incidenten, en verbetert vervolgens de processen / procedures / technologieën om haar cyberweerbaarheid te vergroten.</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Overweeg na elk incident de betrokkenen samen te brengen en samen na te denken over manieren om te verbeteren wat er is gebeurd, hoe het is gebeurd, hoe er is gereageerd, hoe het beter had kunnen gaan, wat er moet gebeuren om herhaling te voorkomen, enz.</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr"/>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>De uit de afhandeling van incidenten geleerde lessen moeten worden vertaald in bijgewerkte of nieuwe procedures voor de afhandeling van incidenten, die op hun beurt moeten worden getest, goedgekeurd en getraind.</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr"/>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>RS.IM-2:  Reactie- en herstelstrategieën worden bijgewerkt.</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr"/>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>De organisatie moet de reactie- en herstelplannen aanpassen aan veranderingen in haar context.</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>De context van de organisatie heeft betrekking op de organisatiestructuur, haar kritieke systemen, aanvalsvectoren, nieuwe bedreigingen, verbeterde technologie, de bedrijfsomgeving, problemen die zich hebben voorgedaan tijdens de implementatie/uitvoering/testen van het plan en de lessen die zijn geleerd.</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>HERSTELLEN (RC)</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Herstelplanning (RC.RP)</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr"/>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Herstelprocessen en -procedures worden uitgevoerd en gehandhaafd om te zorgen voor herstel van systemen of activa die zijn getroffen door cyberbeveiligingsincidenten.</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr"/>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>RC.RP-1: Het herstelplan wordt uitgevoerd tijdens of na een cyberbeveiligingsincident.</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr"/>
-      <c r="B356" t="inlineStr">
-        <is>
           <t>Er moet een herstelproces voor rampen en informatie-/cyberbeveiligingsincidenten worden ontwikkeld en zo nodig uitgevoerd.</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C336" t="inlineStr">
         <is>
           <t>• Er zou een proces moeten worden ontwikkeld voor de onmiddellijke acties in geval van brand, medisch noodgeval, inbraak, natuurramp of een incident op het gebied van informatie-/cyberbeveiliging. 
 • Dit proces zou rekening moeten houden met: 
@@ -4678,151 +4578,141 @@
         </is>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="inlineStr"/>
-      <c r="B357" t="inlineStr">
+    <row r="337">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
         <is>
           <t>De essentiële functies en diensten van de organisatie moeten worden voortgezet met weinig of geen verlies van operationele continuïteit en de continuïteit moet worden gehandhaafd totdat het systeem volledig is hersteld.</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
         <is>
           <t>Verbeteringen (RC.IM)</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr"/>
-      <c r="C358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr"/>
-      <c r="B359" t="inlineStr">
+      <c r="B338" t="inlineStr">
         <is>
           <t>De herstelplanning en -processen worden verbeterd door in toekomstige activiteiten rekening te houden met de opgedane ervaring.</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr"/>
-      <c r="B360" t="inlineStr">
+      <c r="C338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
         <is>
           <t>RC.IM-1:  In de herstelplannen zijn de geleerde lessen verwerkt.</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr"/>
-      <c r="B361" t="inlineStr">
+      <c r="C339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
         <is>
           <t>De organisatie moet de lessen die zijn getrokken uit herstelactiviteiten bij incidenten verwerken in bijgewerkte of nieuwe herstelprocedures voor systemen en dit, na het testen, borgen met een passende opleiding.</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Er zijn geen aanvullende richtsnoeren.</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Er zijn geen aanvullende richtsnoeren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
         <is>
           <t>Communicatie (RC.CO)</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr"/>
-      <c r="C362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr"/>
-      <c r="B363" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Herstelactiviteiten worden gecoördineerd met interne en externe partijen (bv. coördinatiecentra, internetproviders, eigenaars van aanvallende systemen, slachtoffers, andere CSIRT's en verkopers).</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr"/>
-      <c r="B364" t="inlineStr">
+      <c r="C341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
         <is>
           <t>RC.CO-1:  De public relations worden beheerd.</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr"/>
-      <c r="B365" t="inlineStr">
+      <c r="C342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
         <is>
           <t>De organisatie moet de wijze waarop informatie wordt verspreid centraliseren en coördineren, en beheert de wijze waarop de organisatie aan het publiek wordt gepresenteerd.</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>De organisatie moet de wijze waarop informatie wordt verspreid centraliseren en coördineren, en beheert de wijze waarop de organisatie aan het publiek wordt gepresenteerd.</t>
         </is>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="inlineStr"/>
-      <c r="B366" t="inlineStr">
+    <row r="344">
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" t="inlineStr">
         <is>
           <t>Er moet een Public Relations Officer worden aangesteld.</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>De Public Relations Officer zou moeten overwegen gebruik te maken van vooraf bepaalde externe contacten (bijv. pers, regelgevers, belangengroepen).</t>
         </is>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="inlineStr"/>
-      <c r="B367" t="inlineStr">
+    <row r="345">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr">
         <is>
           <t>RC.CO-2: Reputatie wordt hersteld na een incident.</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr"/>
-      <c r="B368" t="inlineStr">
+      <c r="C345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" t="inlineStr">
         <is>
           <t>Er moet een crisisbestrijdingsstrategie worden toegepast om de organisatie te beschermen tegen de negatieve gevolgen van een crisis en te helpen haar reputatie te herstellen.</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>Crisisbestrijdingsstrategieën omvatten bijvoorbeeld maatregelen om de beeldvorming over de crisis vorm te geven, de perceptie van de organisatie in crisis te veranderen, en het negatieve effect dat de crisis teweegbrengt te verminderen.</t>
         </is>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="inlineStr"/>
-      <c r="B369" t="inlineStr">
+    <row r="347">
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
         <is>
           <t>RC.CO-3:  De herstelactiviteiten worden gecommuniceerd aan interne en externe belanghebbenden en aan directie- en managementteams.</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr"/>
-      <c r="B370" t="inlineStr">
+      <c r="C347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
         <is>
           <t>De organisatie moet de herstelactiviteiten meedelen aan vooraf bepaalde belanghebbenden, directie- en managementteams.</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>Communicatie van herstelactiviteiten aan belanghebbenden geldt alleen voor entiteiten die onder de NIS- wetgeving vallen.</t>
         </is>
